--- a/MTC Availability Template.xlsx
+++ b/MTC Availability Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969AFC7E-A8B5-43E7-B2BE-B585471CA3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6638A700-1B7A-42C5-9072-71A54F0B906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{A44E4057-5A82-4A1C-94B9-264E46A32A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{A44E4057-5A82-4A1C-94B9-264E46A32A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="By Student " sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="161">
   <si>
     <t>TA - Teaching Assistant (PhD)</t>
   </si>
@@ -467,9 +467,6 @@
     <t>Theory of Interest I</t>
   </si>
   <si>
-    <t xml:space="preserve">Name 04 </t>
-  </si>
-  <si>
     <t>Applied Statistics I</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
     <t xml:space="preserve">Name 43, Name 12, Name 23, Name 20, Name 36, Name 40, Name 14, Name 41, Name 25, Name 28, Name 17, Name 18, Name 35, Name 07, Name 27, </t>
   </si>
   <si>
-    <t xml:space="preserve">Name 08 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -492,9 +486,6 @@
   </si>
   <si>
     <t xml:space="preserve">Students Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name 14 </t>
   </si>
   <si>
     <t>MA1971 - Bridge to Higher Mathematics</t>
@@ -533,19 +524,7 @@
     <t>MA4635 - Data Analytics And Statistical Learning</t>
   </si>
   <si>
-    <t xml:space="preserve">Name 12 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Position </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name 03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name 38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name 02 </t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1683,9 +1662,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1759,6 +1735,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3992,7 +3983,7 @@
   <dimension ref="B1:KO78"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,7 +4133,7 @@
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="266"/>
+      <c r="C2" s="265"/>
       <c r="JB2" s="116"/>
     </row>
     <row r="3" spans="2:301" x14ac:dyDescent="0.25">
@@ -4480,15 +4471,15 @@
       <c r="GB6" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="GC6" s="251" t="s">
+      <c r="GC6" s="250" t="s">
         <v>31</v>
       </c>
       <c r="GD6" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="GE6" s="252"/>
+      <c r="GE6" s="251"/>
       <c r="GF6" s="148"/>
-      <c r="GG6" s="253"/>
+      <c r="GG6" s="252"/>
       <c r="GI6" s="41" t="s">
         <v>3</v>
       </c>
@@ -5272,7 +5263,7 @@
       <c r="GD8" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="GE8" s="254"/>
+      <c r="GE8" s="253"/>
       <c r="GF8" s="148"/>
       <c r="GG8" s="148"/>
       <c r="GI8" s="44" t="s">
@@ -5632,12 +5623,12 @@
       <c r="FY9" s="26"/>
       <c r="FZ9" s="26"/>
       <c r="GA9" s="14"/>
-      <c r="GB9" s="255"/>
-      <c r="GC9" s="255"/>
-      <c r="GD9" s="255"/>
-      <c r="GE9" s="255"/>
-      <c r="GF9" s="255"/>
-      <c r="GG9" s="255"/>
+      <c r="GB9" s="254"/>
+      <c r="GC9" s="254"/>
+      <c r="GD9" s="254"/>
+      <c r="GE9" s="254"/>
+      <c r="GF9" s="254"/>
+      <c r="GG9" s="254"/>
       <c r="GI9" s="47"/>
       <c r="GJ9" s="47"/>
       <c r="GK9" s="47"/>
@@ -5896,12 +5887,12 @@
       <c r="FX10" s="16"/>
       <c r="FY10" s="16"/>
       <c r="FZ10" s="16"/>
-      <c r="GB10" s="255"/>
-      <c r="GC10" s="255"/>
-      <c r="GD10" s="255"/>
-      <c r="GE10" s="255"/>
-      <c r="GF10" s="255"/>
-      <c r="GG10" s="255"/>
+      <c r="GB10" s="254"/>
+      <c r="GC10" s="254"/>
+      <c r="GD10" s="254"/>
+      <c r="GE10" s="254"/>
+      <c r="GF10" s="254"/>
+      <c r="GG10" s="254"/>
       <c r="GI10" s="47"/>
       <c r="GJ10" s="47"/>
       <c r="GK10" s="47"/>
@@ -7146,11 +7137,11 @@
       <c r="GB12" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="GC12" s="258"/>
-      <c r="GD12" s="258"/>
-      <c r="GE12" s="258"/>
-      <c r="GF12" s="258"/>
-      <c r="GG12" s="258" t="s">
+      <c r="GC12" s="257"/>
+      <c r="GD12" s="257"/>
+      <c r="GE12" s="257"/>
+      <c r="GF12" s="257"/>
+      <c r="GG12" s="257" t="s">
         <v>64</v>
       </c>
       <c r="GI12" s="75" t="s">
@@ -7875,11 +7866,11 @@
       <c r="GB13" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="GC13" s="258"/>
-      <c r="GD13" s="258"/>
-      <c r="GE13" s="258"/>
-      <c r="GF13" s="258"/>
-      <c r="GG13" s="258" t="s">
+      <c r="GC13" s="257"/>
+      <c r="GD13" s="257"/>
+      <c r="GE13" s="257"/>
+      <c r="GF13" s="257"/>
+      <c r="GG13" s="257" t="s">
         <v>64</v>
       </c>
       <c r="GI13" s="75" t="s">
@@ -8598,13 +8589,13 @@
       <c r="GB14" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="GC14" s="258">
-        <v>2</v>
-      </c>
-      <c r="GD14" s="258"/>
-      <c r="GE14" s="258"/>
-      <c r="GF14" s="258"/>
-      <c r="GG14" s="258"/>
+      <c r="GC14" s="257">
+        <v>2</v>
+      </c>
+      <c r="GD14" s="257"/>
+      <c r="GE14" s="257"/>
+      <c r="GF14" s="257"/>
+      <c r="GG14" s="257"/>
       <c r="GI14" s="75" t="s">
         <v>67</v>
       </c>
@@ -9319,17 +9310,17 @@
       <c r="GB15" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="GC15" s="258">
-        <v>2</v>
-      </c>
-      <c r="GD15" s="258">
-        <v>1</v>
-      </c>
-      <c r="GE15" s="258">
-        <v>1</v>
-      </c>
-      <c r="GF15" s="258"/>
-      <c r="GG15" s="258" t="s">
+      <c r="GC15" s="257">
+        <v>2</v>
+      </c>
+      <c r="GD15" s="257">
+        <v>1</v>
+      </c>
+      <c r="GE15" s="257">
+        <v>1</v>
+      </c>
+      <c r="GF15" s="257"/>
+      <c r="GG15" s="257" t="s">
         <v>64</v>
       </c>
       <c r="GI15" s="75" t="s">
@@ -10066,17 +10057,17 @@
       <c r="GB16" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="GC16" s="258">
-        <v>2</v>
-      </c>
-      <c r="GD16" s="258">
-        <v>1</v>
-      </c>
-      <c r="GE16" s="258">
-        <v>1</v>
-      </c>
-      <c r="GF16" s="258"/>
-      <c r="GG16" s="258" t="s">
+      <c r="GC16" s="257">
+        <v>2</v>
+      </c>
+      <c r="GD16" s="257">
+        <v>1</v>
+      </c>
+      <c r="GE16" s="257">
+        <v>1</v>
+      </c>
+      <c r="GF16" s="257"/>
+      <c r="GG16" s="257" t="s">
         <v>71</v>
       </c>
       <c r="GI16" s="75" t="s">
@@ -10801,15 +10792,15 @@
       <c r="GB17" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="GC17" s="258"/>
-      <c r="GD17" s="258">
-        <v>1</v>
-      </c>
-      <c r="GE17" s="258">
-        <v>1</v>
-      </c>
-      <c r="GF17" s="258"/>
-      <c r="GG17" s="258" t="s">
+      <c r="GC17" s="257"/>
+      <c r="GD17" s="257">
+        <v>1</v>
+      </c>
+      <c r="GE17" s="257">
+        <v>1</v>
+      </c>
+      <c r="GF17" s="257"/>
+      <c r="GG17" s="257" t="s">
         <v>71</v>
       </c>
       <c r="GI17" s="75" t="s">
@@ -11526,17 +11517,17 @@
       <c r="GB18" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="GC18" s="258" t="s">
+      <c r="GC18" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="GD18" s="258" t="s">
+      <c r="GD18" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="GE18" s="258"/>
-      <c r="GF18" s="258" t="s">
+      <c r="GE18" s="257"/>
+      <c r="GF18" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="GG18" s="258" t="s">
+      <c r="GG18" s="257" t="s">
         <v>71</v>
       </c>
       <c r="GI18" s="75" t="s">
@@ -12255,17 +12246,17 @@
       <c r="GB19" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="GC19" s="258" t="s">
+      <c r="GC19" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="GD19" s="258" t="s">
+      <c r="GD19" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="GE19" s="258"/>
-      <c r="GF19" s="258" t="s">
+      <c r="GE19" s="257"/>
+      <c r="GF19" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="GG19" s="258" t="s">
+      <c r="GG19" s="257" t="s">
         <v>71</v>
       </c>
       <c r="GI19" s="75" t="s">
@@ -12697,12 +12688,12 @@
       <c r="FY20" s="26"/>
       <c r="FZ20" s="26"/>
       <c r="GA20" s="14"/>
-      <c r="GB20" s="255"/>
-      <c r="GC20" s="255"/>
-      <c r="GD20" s="255"/>
-      <c r="GE20" s="255"/>
-      <c r="GF20" s="255"/>
-      <c r="GG20" s="255"/>
+      <c r="GB20" s="254"/>
+      <c r="GC20" s="254"/>
+      <c r="GD20" s="254"/>
+      <c r="GE20" s="254"/>
+      <c r="GF20" s="254"/>
+      <c r="GG20" s="254"/>
       <c r="GI20" s="47"/>
       <c r="GJ20" s="47"/>
       <c r="GK20" s="47"/>
@@ -12974,12 +12965,12 @@
       <c r="FY21" s="26"/>
       <c r="FZ21" s="26"/>
       <c r="GA21" s="14"/>
-      <c r="GB21" s="255"/>
-      <c r="GC21" s="255"/>
-      <c r="GD21" s="255"/>
-      <c r="GE21" s="255"/>
-      <c r="GF21" s="255"/>
-      <c r="GG21" s="255"/>
+      <c r="GB21" s="254"/>
+      <c r="GC21" s="254"/>
+      <c r="GD21" s="254"/>
+      <c r="GE21" s="254"/>
+      <c r="GF21" s="254"/>
+      <c r="GG21" s="254"/>
       <c r="GI21" s="47"/>
       <c r="GJ21" s="47"/>
       <c r="GK21" s="47"/>
@@ -13282,14 +13273,14 @@
       <c r="FX22" s="16"/>
       <c r="FY22" s="16"/>
       <c r="FZ22" s="16"/>
-      <c r="GB22" s="255"/>
-      <c r="GC22" s="255"/>
-      <c r="GD22" s="255"/>
-      <c r="GE22" s="255" t="s">
+      <c r="GB22" s="254"/>
+      <c r="GC22" s="254"/>
+      <c r="GD22" s="254"/>
+      <c r="GE22" s="254" t="s">
         <v>75</v>
       </c>
-      <c r="GF22" s="255"/>
-      <c r="GG22" s="255"/>
+      <c r="GF22" s="254"/>
+      <c r="GG22" s="254"/>
       <c r="GI22" s="47"/>
       <c r="GJ22" s="47"/>
       <c r="GK22" s="47"/>
@@ -13748,9 +13739,9 @@
       <c r="GD23" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="GE23" s="255"/>
-      <c r="GF23" s="255"/>
-      <c r="GG23" s="255"/>
+      <c r="GE23" s="254"/>
+      <c r="GF23" s="254"/>
+      <c r="GG23" s="254"/>
       <c r="GI23" s="50" t="s">
         <v>77</v>
       </c>
@@ -14251,16 +14242,16 @@
       <c r="FY24" s="26"/>
       <c r="FZ24" s="26"/>
       <c r="GA24" s="14"/>
-      <c r="GB24" s="259" t="s">
+      <c r="GB24" s="258" t="s">
         <v>81</v>
       </c>
-      <c r="GC24" s="260" t="s">
+      <c r="GC24" s="259" t="s">
         <v>82</v>
       </c>
-      <c r="GD24" s="259"/>
-      <c r="GE24" s="255"/>
-      <c r="GF24" s="255"/>
-      <c r="GG24" s="255"/>
+      <c r="GD24" s="258"/>
+      <c r="GE24" s="254"/>
+      <c r="GF24" s="254"/>
+      <c r="GG24" s="254"/>
       <c r="GI24" s="123" t="s">
         <v>81</v>
       </c>
@@ -14755,16 +14746,16 @@
       <c r="FY25" s="26"/>
       <c r="FZ25" s="26"/>
       <c r="GA25" s="14"/>
-      <c r="GB25" s="259" t="s">
+      <c r="GB25" s="258" t="s">
         <v>83</v>
       </c>
-      <c r="GC25" s="260" t="s">
+      <c r="GC25" s="259" t="s">
         <v>84</v>
       </c>
-      <c r="GD25" s="259"/>
-      <c r="GE25" s="255"/>
-      <c r="GF25" s="255"/>
-      <c r="GG25" s="255"/>
+      <c r="GD25" s="258"/>
+      <c r="GE25" s="254"/>
+      <c r="GF25" s="254"/>
+      <c r="GG25" s="254"/>
       <c r="GI25" s="123" t="s">
         <v>83</v>
       </c>
@@ -15253,16 +15244,16 @@
       <c r="FY26" s="26"/>
       <c r="FZ26" s="26"/>
       <c r="GA26" s="14"/>
-      <c r="GB26" s="259" t="s">
+      <c r="GB26" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="GC26" s="260" t="s">
+      <c r="GC26" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="GD26" s="259"/>
-      <c r="GE26" s="255"/>
-      <c r="GF26" s="255"/>
-      <c r="GG26" s="255"/>
+      <c r="GD26" s="258"/>
+      <c r="GE26" s="254"/>
+      <c r="GF26" s="254"/>
+      <c r="GG26" s="254"/>
       <c r="GI26" s="123" t="s">
         <v>85</v>
       </c>
@@ -15741,18 +15732,18 @@
       <c r="FY27" s="26"/>
       <c r="FZ27" s="26"/>
       <c r="GA27" s="14"/>
-      <c r="GB27" s="259" t="s">
+      <c r="GB27" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="GC27" s="260" t="s">
+      <c r="GC27" s="259" t="s">
         <v>88</v>
       </c>
-      <c r="GD27" s="259" t="s">
-        <v>65</v>
-      </c>
-      <c r="GE27" s="255"/>
-      <c r="GF27" s="255"/>
-      <c r="GG27" s="255"/>
+      <c r="GD27" s="258" t="s">
+        <v>65</v>
+      </c>
+      <c r="GE27" s="254"/>
+      <c r="GF27" s="254"/>
+      <c r="GG27" s="254"/>
       <c r="GI27" s="123" t="s">
         <v>87</v>
       </c>
@@ -16223,16 +16214,16 @@
       <c r="FY28" s="26"/>
       <c r="FZ28" s="26"/>
       <c r="GA28" s="14"/>
-      <c r="GB28" s="259" t="s">
+      <c r="GB28" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="GC28" s="260" t="s">
+      <c r="GC28" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="GD28" s="259"/>
-      <c r="GE28" s="255"/>
-      <c r="GF28" s="255"/>
-      <c r="GG28" s="255"/>
+      <c r="GD28" s="258"/>
+      <c r="GE28" s="254"/>
+      <c r="GF28" s="254"/>
+      <c r="GG28" s="254"/>
       <c r="GI28" s="123" t="s">
         <v>89</v>
       </c>
@@ -16709,18 +16700,18 @@
       <c r="FY29" s="26"/>
       <c r="FZ29" s="26"/>
       <c r="GA29" s="14"/>
-      <c r="GB29" s="259" t="s">
+      <c r="GB29" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="GC29" s="260" t="s">
+      <c r="GC29" s="259" t="s">
         <v>92</v>
       </c>
-      <c r="GD29" s="261" t="s">
-        <v>65</v>
-      </c>
-      <c r="GE29" s="255"/>
-      <c r="GF29" s="255"/>
-      <c r="GG29" s="255"/>
+      <c r="GD29" s="260" t="s">
+        <v>65</v>
+      </c>
+      <c r="GE29" s="254"/>
+      <c r="GF29" s="254"/>
+      <c r="GG29" s="254"/>
       <c r="GI29" s="123" t="s">
         <v>91</v>
       </c>
@@ -17167,16 +17158,16 @@
       <c r="FY30" s="26"/>
       <c r="FZ30" s="26"/>
       <c r="GA30" s="14"/>
-      <c r="GB30" s="259" t="s">
+      <c r="GB30" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="GC30" s="259" t="s">
+      <c r="GC30" s="258" t="s">
         <v>96</v>
       </c>
-      <c r="GD30" s="261"/>
-      <c r="GE30" s="255"/>
-      <c r="GF30" s="255"/>
-      <c r="GG30" s="255"/>
+      <c r="GD30" s="260"/>
+      <c r="GE30" s="254"/>
+      <c r="GF30" s="254"/>
+      <c r="GG30" s="254"/>
       <c r="GI30" s="123" t="s">
         <v>95</v>
       </c>
@@ -17296,7 +17287,7 @@
       <c r="JI30" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="JJ30" s="242"/>
+      <c r="JJ30" s="241"/>
       <c r="JK30" s="87"/>
       <c r="JL30" s="87"/>
       <c r="JM30" s="87"/>
@@ -17627,18 +17618,18 @@
       <c r="FY31" s="26"/>
       <c r="FZ31" s="26"/>
       <c r="GA31" s="14"/>
-      <c r="GB31" s="259" t="s">
+      <c r="GB31" s="258" t="s">
         <v>97</v>
       </c>
-      <c r="GC31" s="260" t="s">
+      <c r="GC31" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="GD31" s="259" t="s">
-        <v>65</v>
-      </c>
-      <c r="GE31" s="255"/>
-      <c r="GF31" s="255"/>
-      <c r="GG31" s="255"/>
+      <c r="GD31" s="258" t="s">
+        <v>65</v>
+      </c>
+      <c r="GE31" s="254"/>
+      <c r="GF31" s="254"/>
+      <c r="GG31" s="254"/>
       <c r="GI31" s="123" t="s">
         <v>97</v>
       </c>
@@ -18095,18 +18086,18 @@
       <c r="FY32" s="26"/>
       <c r="FZ32" s="26"/>
       <c r="GA32" s="14"/>
-      <c r="GB32" s="259" t="s">
+      <c r="GB32" s="258" t="s">
         <v>99</v>
       </c>
-      <c r="GC32" s="260" t="s">
+      <c r="GC32" s="259" t="s">
         <v>100</v>
       </c>
-      <c r="GD32" s="259" t="s">
-        <v>65</v>
-      </c>
-      <c r="GE32" s="255"/>
-      <c r="GF32" s="255"/>
-      <c r="GG32" s="255"/>
+      <c r="GD32" s="258" t="s">
+        <v>65</v>
+      </c>
+      <c r="GE32" s="254"/>
+      <c r="GF32" s="254"/>
+      <c r="GG32" s="254"/>
       <c r="GI32" s="123" t="s">
         <v>99</v>
       </c>
@@ -18441,12 +18432,12 @@
       <c r="FY33" s="26"/>
       <c r="FZ33" s="26"/>
       <c r="GA33" s="14"/>
-      <c r="GB33" s="257"/>
-      <c r="GC33" s="257"/>
-      <c r="GD33" s="257"/>
-      <c r="GE33" s="255"/>
-      <c r="GF33" s="255"/>
-      <c r="GG33" s="255"/>
+      <c r="GB33" s="256"/>
+      <c r="GC33" s="256"/>
+      <c r="GD33" s="256"/>
+      <c r="GE33" s="254"/>
+      <c r="GF33" s="254"/>
+      <c r="GG33" s="254"/>
       <c r="GI33" s="87"/>
       <c r="GJ33" s="87"/>
       <c r="GK33" s="87"/>
@@ -18721,12 +18712,12 @@
       <c r="FY34" s="26"/>
       <c r="FZ34" s="26"/>
       <c r="GA34" s="14"/>
-      <c r="GB34" s="255"/>
-      <c r="GC34" s="255"/>
-      <c r="GD34" s="255"/>
-      <c r="GE34" s="255"/>
-      <c r="GF34" s="255"/>
-      <c r="GG34" s="255"/>
+      <c r="GB34" s="254"/>
+      <c r="GC34" s="254"/>
+      <c r="GD34" s="254"/>
+      <c r="GE34" s="254"/>
+      <c r="GF34" s="254"/>
+      <c r="GG34" s="254"/>
       <c r="GI34" s="87"/>
       <c r="GJ34" s="87"/>
       <c r="GK34" s="87"/>
@@ -19023,11 +19014,11 @@
       <c r="GB35" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="GC35" s="256"/>
-      <c r="GD35" s="256"/>
-      <c r="GE35" s="255"/>
-      <c r="GF35" s="255"/>
-      <c r="GG35" s="255"/>
+      <c r="GC35" s="255"/>
+      <c r="GD35" s="255"/>
+      <c r="GE35" s="254"/>
+      <c r="GF35" s="254"/>
+      <c r="GG35" s="254"/>
       <c r="GI35" s="18"/>
       <c r="GJ35" s="18"/>
       <c r="GK35" s="18"/>
@@ -19212,25 +19203,25 @@
       <c r="BW36" s="61"/>
       <c r="BX36" s="61"/>
       <c r="BY36" s="61"/>
-      <c r="CA36" s="240" t="s">
+      <c r="CA36" s="239" t="s">
         <v>103</v>
       </c>
-      <c r="CB36" s="240" t="s">
+      <c r="CB36" s="239" t="s">
         <v>104</v>
       </c>
-      <c r="CC36" s="240" t="s">
-        <v>65</v>
-      </c>
-      <c r="CD36" s="240"/>
-      <c r="CE36" s="240"/>
-      <c r="CF36" s="240"/>
+      <c r="CC36" s="239" t="s">
+        <v>65</v>
+      </c>
+      <c r="CD36" s="239"/>
+      <c r="CE36" s="239"/>
+      <c r="CF36" s="239"/>
       <c r="CG36" s="204"/>
-      <c r="CH36" s="240" t="s">
+      <c r="CH36" s="239" t="s">
         <v>105</v>
       </c>
-      <c r="CI36" s="240"/>
-      <c r="CJ36" s="240"/>
-      <c r="CK36" s="240"/>
+      <c r="CI36" s="239"/>
+      <c r="CJ36" s="239"/>
+      <c r="CK36" s="239"/>
       <c r="CL36" s="26"/>
       <c r="CM36" s="26"/>
       <c r="CO36" s="18"/>
@@ -19320,12 +19311,12 @@
       <c r="FX36" s="16"/>
       <c r="FY36" s="16"/>
       <c r="FZ36" s="16"/>
-      <c r="GB36" s="255"/>
-      <c r="GC36" s="255"/>
-      <c r="GD36" s="255"/>
-      <c r="GE36" s="255"/>
-      <c r="GF36" s="255"/>
-      <c r="GG36" s="255"/>
+      <c r="GB36" s="254"/>
+      <c r="GC36" s="254"/>
+      <c r="GD36" s="254"/>
+      <c r="GE36" s="254"/>
+      <c r="GF36" s="254"/>
+      <c r="GG36" s="254"/>
       <c r="GI36" s="18"/>
       <c r="GJ36" s="18"/>
       <c r="GK36" s="18"/>
@@ -19498,23 +19489,23 @@
       <c r="BW37" s="65"/>
       <c r="BX37" s="65"/>
       <c r="BY37" s="65"/>
-      <c r="CA37" s="240" t="s">
+      <c r="CA37" s="239" t="s">
         <v>112</v>
       </c>
-      <c r="CB37" s="240" t="s">
+      <c r="CB37" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="CC37" s="240" t="s">
-        <v>65</v>
-      </c>
-      <c r="CD37" s="240"/>
-      <c r="CE37" s="240"/>
-      <c r="CF37" s="240"/>
+      <c r="CC37" s="239" t="s">
+        <v>65</v>
+      </c>
+      <c r="CD37" s="239"/>
+      <c r="CE37" s="239"/>
+      <c r="CF37" s="239"/>
       <c r="CG37" s="204"/>
-      <c r="CH37" s="250"/>
-      <c r="CI37" s="250"/>
-      <c r="CJ37" s="250"/>
-      <c r="CK37" s="250"/>
+      <c r="CH37" s="249"/>
+      <c r="CI37" s="249"/>
+      <c r="CJ37" s="249"/>
+      <c r="CK37" s="249"/>
       <c r="CL37" s="16"/>
       <c r="CM37" s="16"/>
       <c r="CO37" s="18"/>
@@ -19598,12 +19589,12 @@
       <c r="FX37" s="16"/>
       <c r="FY37" s="16"/>
       <c r="FZ37" s="16"/>
-      <c r="GB37" s="255"/>
-      <c r="GC37" s="255"/>
-      <c r="GD37" s="255"/>
-      <c r="GE37" s="255"/>
-      <c r="GF37" s="255"/>
-      <c r="GG37" s="255"/>
+      <c r="GB37" s="254"/>
+      <c r="GC37" s="254"/>
+      <c r="GD37" s="254"/>
+      <c r="GE37" s="254"/>
+      <c r="GF37" s="254"/>
+      <c r="GG37" s="254"/>
       <c r="GI37" s="18"/>
       <c r="GJ37" s="18"/>
       <c r="GK37" s="18"/>
@@ -19770,17 +19761,17 @@
       <c r="BW38" s="18"/>
       <c r="BX38" s="18"/>
       <c r="BY38" s="18"/>
-      <c r="CA38" s="250"/>
-      <c r="CB38" s="250"/>
-      <c r="CC38" s="250"/>
-      <c r="CD38" s="250"/>
-      <c r="CE38" s="250"/>
-      <c r="CF38" s="250"/>
+      <c r="CA38" s="249"/>
+      <c r="CB38" s="249"/>
+      <c r="CC38" s="249"/>
+      <c r="CD38" s="249"/>
+      <c r="CE38" s="249"/>
+      <c r="CF38" s="249"/>
       <c r="CG38" s="201"/>
-      <c r="CH38" s="250"/>
-      <c r="CI38" s="250"/>
-      <c r="CJ38" s="250"/>
-      <c r="CK38" s="250"/>
+      <c r="CH38" s="249"/>
+      <c r="CI38" s="249"/>
+      <c r="CJ38" s="249"/>
+      <c r="CK38" s="249"/>
       <c r="CL38" s="16"/>
       <c r="CM38" s="16"/>
       <c r="CO38" s="18"/>
@@ -20409,8 +20400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3372C6B-24FC-407D-90A5-CAAF37CF84F9}">
   <dimension ref="A3:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20769,8 +20760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC065B-D97C-493A-9C27-603B7534C06F}">
   <dimension ref="A2:T247"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20795,395 +20786,395 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="263" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
     </row>
     <row r="3" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="261" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="262" t="s">
+      <c r="C3" s="261" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="262" t="s">
+      <c r="D3" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="262" t="s">
+      <c r="E3" s="261" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="262" t="s">
+      <c r="F3" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="262" t="s">
+      <c r="G3" s="261" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="262" t="s">
+      <c r="H3" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="262" t="s">
+      <c r="I3" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="262" t="s">
+      <c r="J3" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="262" t="s">
+      <c r="K3" s="261" t="s">
         <v>74</v>
       </c>
       <c r="L3" s="201" t="s">
         <v>124</v>
       </c>
-      <c r="P3" s="235" t="s">
+      <c r="P3" s="234" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="235" t="s">
+      <c r="Q3" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="R3" s="235" t="s">
+      <c r="R3" s="234" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="263" t="s">
+      <c r="B4" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="263" t="s">
+      <c r="C4" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263">
-        <v>2</v>
-      </c>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263"/>
-      <c r="P4" s="236" t="s">
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262">
+        <v>2</v>
+      </c>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="P4" s="235" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" s="236" t="s">
+      <c r="Q4" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="R4" s="236">
+      <c r="R4" s="235">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="263" t="s">
+      <c r="B5" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263">
-        <v>1</v>
-      </c>
-      <c r="G5" s="263">
-        <v>1</v>
-      </c>
-      <c r="H5" s="263">
-        <v>1</v>
-      </c>
-      <c r="I5" s="263">
-        <v>1</v>
-      </c>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="P5" s="237" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262">
+        <v>1</v>
+      </c>
+      <c r="G5" s="262">
+        <v>1</v>
+      </c>
+      <c r="H5" s="262">
+        <v>1</v>
+      </c>
+      <c r="I5" s="262">
+        <v>1</v>
+      </c>
+      <c r="J5" s="262"/>
+      <c r="K5" s="262"/>
+      <c r="P5" s="236" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="237" t="s">
+      <c r="Q5" s="236" t="s">
         <v>129</v>
       </c>
-      <c r="R5" s="236">
+      <c r="R5" s="235">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="263" t="s">
+      <c r="C6" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="263">
-        <v>2</v>
-      </c>
-      <c r="E6" s="263">
-        <v>1</v>
-      </c>
-      <c r="F6" s="263" t="s">
+      <c r="D6" s="262">
+        <v>2</v>
+      </c>
+      <c r="E6" s="262">
+        <v>1</v>
+      </c>
+      <c r="F6" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="263" t="s">
+      <c r="G6" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="263">
-        <v>1</v>
-      </c>
-      <c r="I6" s="263">
-        <v>2</v>
-      </c>
-      <c r="J6" s="263">
-        <v>2</v>
-      </c>
-      <c r="K6" s="263">
-        <v>2</v>
-      </c>
-      <c r="P6" s="236" t="s">
+      <c r="H6" s="262">
+        <v>1</v>
+      </c>
+      <c r="I6" s="262">
+        <v>2</v>
+      </c>
+      <c r="J6" s="262">
+        <v>2</v>
+      </c>
+      <c r="K6" s="262">
+        <v>2</v>
+      </c>
+      <c r="P6" s="235" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="236" t="s">
+      <c r="Q6" s="235" t="s">
         <v>133</v>
       </c>
-      <c r="R6" s="236">
+      <c r="R6" s="235">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="263" t="s">
+      <c r="B7" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="263"/>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263">
-        <v>2</v>
-      </c>
-      <c r="G7" s="263">
-        <v>2</v>
-      </c>
-      <c r="H7" s="263">
-        <v>2</v>
-      </c>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
-      <c r="K7" s="263"/>
-      <c r="P7" s="237" t="s">
+      <c r="D7" s="262"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262">
+        <v>2</v>
+      </c>
+      <c r="G7" s="262">
+        <v>2</v>
+      </c>
+      <c r="H7" s="262">
+        <v>2</v>
+      </c>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="262"/>
+      <c r="P7" s="236" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="237" t="s">
+      <c r="Q7" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="R7" s="237">
+      <c r="R7" s="236">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="263">
-        <v>1</v>
-      </c>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263">
-        <v>1</v>
-      </c>
-      <c r="K8" s="263">
-        <v>1</v>
-      </c>
-      <c r="P8" s="236" t="s">
+      <c r="D8" s="262">
+        <v>1</v>
+      </c>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262">
+        <v>1</v>
+      </c>
+      <c r="K8" s="262">
+        <v>1</v>
+      </c>
+      <c r="P8" s="235" t="s">
         <v>136</v>
       </c>
-      <c r="Q8" s="236" t="s">
+      <c r="Q8" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="R8" s="236">
+      <c r="R8" s="235">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="263" t="s">
+      <c r="B9" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="263"/>
-      <c r="E9" s="263">
-        <v>1</v>
-      </c>
-      <c r="F9" s="263">
-        <v>1</v>
-      </c>
-      <c r="G9" s="263">
-        <v>1</v>
-      </c>
-      <c r="H9" s="263"/>
-      <c r="I9" s="263"/>
-      <c r="J9" s="263"/>
-      <c r="K9" s="263"/>
-      <c r="P9" s="237" t="s">
+      <c r="D9" s="262"/>
+      <c r="E9" s="262">
+        <v>1</v>
+      </c>
+      <c r="F9" s="262">
+        <v>1</v>
+      </c>
+      <c r="G9" s="262">
+        <v>1</v>
+      </c>
+      <c r="H9" s="262"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="P9" s="236" t="s">
         <v>138</v>
       </c>
-      <c r="Q9" s="237" t="s">
+      <c r="Q9" s="236" t="s">
         <v>139</v>
       </c>
-      <c r="R9" s="237">
+      <c r="R9" s="236">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="263" t="s">
+      <c r="B10" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="263" t="s">
+      <c r="C10" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="263">
-        <v>1</v>
-      </c>
-      <c r="E10" s="263">
-        <v>1</v>
-      </c>
-      <c r="F10" s="263">
-        <v>1</v>
-      </c>
-      <c r="G10" s="263">
-        <v>2</v>
-      </c>
-      <c r="H10" s="263">
-        <v>2</v>
-      </c>
-      <c r="I10" s="263">
-        <v>2</v>
-      </c>
-      <c r="J10" s="263">
-        <v>2</v>
-      </c>
-      <c r="K10" s="263">
-        <v>2</v>
-      </c>
-      <c r="P10" s="236" t="s">
+      <c r="D10" s="262">
+        <v>1</v>
+      </c>
+      <c r="E10" s="262">
+        <v>1</v>
+      </c>
+      <c r="F10" s="262">
+        <v>1</v>
+      </c>
+      <c r="G10" s="262">
+        <v>2</v>
+      </c>
+      <c r="H10" s="262">
+        <v>2</v>
+      </c>
+      <c r="I10" s="262">
+        <v>2</v>
+      </c>
+      <c r="J10" s="262">
+        <v>2</v>
+      </c>
+      <c r="K10" s="262">
+        <v>2</v>
+      </c>
+      <c r="P10" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="Q10" s="236" t="s">
+      <c r="Q10" s="235" t="s">
         <v>121</v>
       </c>
-      <c r="R10" s="236">
+      <c r="R10" s="235">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="263" t="s">
+      <c r="B11" s="268" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="262" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="262"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="262">
+        <v>2</v>
+      </c>
+      <c r="G11" s="262">
+        <v>1</v>
+      </c>
+      <c r="H11" s="262">
+        <v>3</v>
+      </c>
+      <c r="I11" s="262">
+        <v>3</v>
+      </c>
+      <c r="J11" s="262">
+        <v>3</v>
+      </c>
+      <c r="K11" s="262">
+        <v>3</v>
+      </c>
+      <c r="P11" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="Q11" s="236" t="s">
+        <v>142</v>
+      </c>
+      <c r="R11" s="236">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="268" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="263"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263">
-        <v>2</v>
-      </c>
-      <c r="G11" s="263">
-        <v>1</v>
-      </c>
-      <c r="H11" s="263">
-        <v>3</v>
-      </c>
-      <c r="I11" s="263">
-        <v>3</v>
-      </c>
-      <c r="J11" s="263">
-        <v>3</v>
-      </c>
-      <c r="K11" s="263">
-        <v>3</v>
-      </c>
-      <c r="P11" s="237" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" s="237" t="s">
+      <c r="D12" s="262"/>
+      <c r="E12" s="262">
+        <v>2</v>
+      </c>
+      <c r="F12" s="262">
+        <v>2</v>
+      </c>
+      <c r="G12" s="262">
+        <v>2</v>
+      </c>
+      <c r="H12" s="262">
+        <v>2</v>
+      </c>
+      <c r="I12" s="262">
+        <v>2</v>
+      </c>
+      <c r="J12" s="262">
+        <v>2</v>
+      </c>
+      <c r="K12" s="262"/>
+      <c r="P12" s="237" t="s">
         <v>143</v>
       </c>
-      <c r="R11" s="237">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="263" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="263" t="s">
+      <c r="Q12" s="237" t="s">
+        <v>144</v>
+      </c>
+      <c r="R12" s="237">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263">
-        <v>2</v>
-      </c>
-      <c r="F12" s="263">
-        <v>2</v>
-      </c>
-      <c r="G12" s="263">
-        <v>2</v>
-      </c>
-      <c r="H12" s="263">
-        <v>2</v>
-      </c>
-      <c r="I12" s="263">
-        <v>2</v>
-      </c>
-      <c r="J12" s="263">
-        <v>2</v>
-      </c>
-      <c r="K12" s="263"/>
-      <c r="P12" s="238" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q12" s="238" t="s">
-        <v>145</v>
-      </c>
-      <c r="R12" s="238">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="263" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="263" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="263"/>
-      <c r="E13" s="263"/>
-      <c r="F13" s="263">
-        <v>3</v>
-      </c>
-      <c r="G13" s="263">
-        <v>3</v>
-      </c>
-      <c r="H13" s="263">
-        <v>3</v>
-      </c>
-      <c r="I13" s="263">
-        <v>1</v>
-      </c>
-      <c r="J13" s="263"/>
-      <c r="K13" s="263">
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="262">
+        <v>3</v>
+      </c>
+      <c r="G13" s="262">
+        <v>3</v>
+      </c>
+      <c r="H13" s="262">
+        <v>3</v>
+      </c>
+      <c r="I13" s="262">
+        <v>1</v>
+      </c>
+      <c r="J13" s="262"/>
+      <c r="K13" s="262">
         <v>3</v>
       </c>
       <c r="P13" s="204"/>
@@ -21191,34 +21182,34 @@
       <c r="R13" s="204"/>
     </row>
     <row r="14" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="263" t="s">
+      <c r="C14" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="263">
-        <v>3</v>
-      </c>
-      <c r="E14" s="263">
-        <v>3</v>
-      </c>
-      <c r="F14" s="263">
-        <v>3</v>
-      </c>
-      <c r="G14" s="263">
-        <v>3</v>
-      </c>
-      <c r="H14" s="263">
-        <v>3</v>
-      </c>
-      <c r="I14" s="263">
-        <v>2</v>
-      </c>
-      <c r="J14" s="263">
-        <v>1</v>
-      </c>
-      <c r="K14" s="263">
+      <c r="D14" s="262">
+        <v>3</v>
+      </c>
+      <c r="E14" s="262">
+        <v>3</v>
+      </c>
+      <c r="F14" s="262">
+        <v>3</v>
+      </c>
+      <c r="G14" s="262">
+        <v>3</v>
+      </c>
+      <c r="H14" s="262">
+        <v>3</v>
+      </c>
+      <c r="I14" s="262">
+        <v>2</v>
+      </c>
+      <c r="J14" s="262">
+        <v>1</v>
+      </c>
+      <c r="K14" s="262">
         <v>1</v>
       </c>
       <c r="M14" s="204"/>
@@ -21229,30 +21220,30 @@
       <c r="R14" s="204"/>
     </row>
     <row r="15" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="263" t="s">
+      <c r="B15" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="263" t="s">
+      <c r="C15" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="263" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="263">
-        <v>1</v>
-      </c>
-      <c r="F15" s="263" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="263">
-        <v>2</v>
-      </c>
-      <c r="H15" s="263">
-        <v>1</v>
-      </c>
-      <c r="I15" s="263"/>
-      <c r="J15" s="263"/>
-      <c r="K15" s="263"/>
+      <c r="D15" s="262" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="262">
+        <v>1</v>
+      </c>
+      <c r="F15" s="262" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="262">
+        <v>2</v>
+      </c>
+      <c r="H15" s="262">
+        <v>1</v>
+      </c>
+      <c r="I15" s="262"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="262"/>
       <c r="M15" s="204"/>
       <c r="N15" s="204"/>
       <c r="O15" s="204"/>
@@ -21261,397 +21252,397 @@
       <c r="R15" s="204"/>
     </row>
     <row r="16" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="263" t="s">
+      <c r="B16" s="268" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="263" t="s">
+      <c r="C16" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="263"/>
-      <c r="E16" s="263"/>
-      <c r="F16" s="263">
-        <v>1</v>
-      </c>
-      <c r="G16" s="263">
-        <v>2</v>
-      </c>
-      <c r="H16" s="263">
-        <v>2</v>
-      </c>
-      <c r="I16" s="263">
-        <v>2</v>
-      </c>
-      <c r="J16" s="263">
-        <v>2</v>
-      </c>
-      <c r="K16" s="263">
+      <c r="D16" s="262"/>
+      <c r="E16" s="262"/>
+      <c r="F16" s="262">
+        <v>1</v>
+      </c>
+      <c r="G16" s="262">
+        <v>2</v>
+      </c>
+      <c r="H16" s="262">
+        <v>2</v>
+      </c>
+      <c r="I16" s="262">
+        <v>2</v>
+      </c>
+      <c r="J16" s="262">
+        <v>2</v>
+      </c>
+      <c r="K16" s="262">
         <v>2</v>
       </c>
       <c r="M16" s="204"/>
       <c r="N16" s="204"/>
       <c r="O16" s="204"/>
-      <c r="P16" s="239" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q16" s="239" t="s">
-        <v>149</v>
+      <c r="P16" s="238" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" s="238" t="s">
+        <v>147</v>
       </c>
       <c r="R16" s="204" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="263" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="263" t="s">
+      <c r="B17" s="268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="263">
-        <v>2</v>
-      </c>
-      <c r="E17" s="263">
-        <v>2</v>
-      </c>
-      <c r="F17" s="263"/>
-      <c r="G17" s="263">
-        <v>2</v>
-      </c>
-      <c r="H17" s="263">
-        <v>1</v>
-      </c>
-      <c r="I17" s="263"/>
-      <c r="J17" s="263"/>
-      <c r="K17" s="263"/>
+      <c r="D17" s="262">
+        <v>2</v>
+      </c>
+      <c r="E17" s="262">
+        <v>2</v>
+      </c>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262">
+        <v>2</v>
+      </c>
+      <c r="H17" s="262">
+        <v>1</v>
+      </c>
+      <c r="I17" s="262"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="262"/>
       <c r="M17" s="204"/>
       <c r="N17" s="204"/>
       <c r="O17" s="204"/>
-      <c r="P17" s="240" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17" s="267" t="s">
+      <c r="P17" s="239" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q17" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="240">
+      <c r="R17" s="239">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="263" t="s">
+      <c r="C18" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="263"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263">
-        <v>1</v>
-      </c>
-      <c r="G18" s="263"/>
-      <c r="H18" s="263"/>
-      <c r="I18" s="263"/>
-      <c r="J18" s="263">
-        <v>2</v>
-      </c>
-      <c r="K18" s="263">
+      <c r="D18" s="262"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="262">
+        <v>1</v>
+      </c>
+      <c r="G18" s="262"/>
+      <c r="H18" s="262"/>
+      <c r="I18" s="262"/>
+      <c r="J18" s="262">
+        <v>2</v>
+      </c>
+      <c r="K18" s="262">
         <v>2</v>
       </c>
       <c r="M18" s="204"/>
       <c r="N18" s="204"/>
       <c r="O18" s="204"/>
-      <c r="P18" s="240" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q18" s="241" t="s">
-        <v>153</v>
-      </c>
-      <c r="R18" s="240">
+      <c r="P18" s="239" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" s="240" t="s">
+        <v>150</v>
+      </c>
+      <c r="R18" s="239">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="263" t="s">
+      <c r="C19" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="263"/>
-      <c r="E19" s="263">
-        <v>1</v>
-      </c>
-      <c r="F19" s="263">
-        <v>2</v>
-      </c>
-      <c r="G19" s="263">
-        <v>3</v>
-      </c>
-      <c r="H19" s="263">
-        <v>3</v>
-      </c>
-      <c r="I19" s="263">
-        <v>3</v>
-      </c>
-      <c r="J19" s="263">
-        <v>3</v>
-      </c>
-      <c r="K19" s="263">
+      <c r="D19" s="262"/>
+      <c r="E19" s="262">
+        <v>1</v>
+      </c>
+      <c r="F19" s="262">
+        <v>2</v>
+      </c>
+      <c r="G19" s="262">
+        <v>3</v>
+      </c>
+      <c r="H19" s="262">
+        <v>3</v>
+      </c>
+      <c r="I19" s="262">
+        <v>3</v>
+      </c>
+      <c r="J19" s="262">
+        <v>3</v>
+      </c>
+      <c r="K19" s="262">
         <v>3</v>
       </c>
       <c r="M19" s="204"/>
       <c r="N19" s="204"/>
       <c r="O19" s="204"/>
-      <c r="P19" s="240" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q19" s="240" t="s">
-        <v>155</v>
-      </c>
-      <c r="R19" s="240">
+      <c r="P19" s="239" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="239" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="239">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="263" t="s">
+      <c r="B20" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="263" t="s">
+      <c r="C20" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="263"/>
-      <c r="E20" s="263">
-        <v>1</v>
-      </c>
-      <c r="F20" s="263">
-        <v>2</v>
-      </c>
-      <c r="G20" s="263">
+      <c r="D20" s="262"/>
+      <c r="E20" s="262">
+        <v>1</v>
+      </c>
+      <c r="F20" s="262">
+        <v>2</v>
+      </c>
+      <c r="G20" s="262">
         <v>4</v>
       </c>
-      <c r="H20" s="263">
-        <v>3</v>
-      </c>
-      <c r="I20" s="263">
+      <c r="H20" s="262">
+        <v>3</v>
+      </c>
+      <c r="I20" s="262">
         <v>5</v>
       </c>
-      <c r="J20" s="263"/>
-      <c r="K20" s="263">
+      <c r="J20" s="262"/>
+      <c r="K20" s="262">
         <v>6</v>
       </c>
       <c r="M20" s="204"/>
       <c r="N20" s="204"/>
       <c r="O20" s="204"/>
-      <c r="P20" s="240" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="240" t="s">
-        <v>157</v>
-      </c>
-      <c r="R20" s="240">
+      <c r="P20" s="239" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q20" s="239" t="s">
+        <v>154</v>
+      </c>
+      <c r="R20" s="239">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="263" t="s">
+      <c r="B21" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="263" t="s">
+      <c r="C21" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="263">
-        <v>2</v>
-      </c>
-      <c r="E21" s="263">
-        <v>1</v>
-      </c>
-      <c r="F21" s="263"/>
-      <c r="G21" s="263"/>
-      <c r="H21" s="263">
-        <v>1</v>
-      </c>
-      <c r="I21" s="263"/>
-      <c r="J21" s="263">
-        <v>1</v>
-      </c>
-      <c r="K21" s="263">
+      <c r="D21" s="262">
+        <v>2</v>
+      </c>
+      <c r="E21" s="262">
+        <v>1</v>
+      </c>
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="262">
+        <v>1</v>
+      </c>
+      <c r="I21" s="262"/>
+      <c r="J21" s="262">
+        <v>1</v>
+      </c>
+      <c r="K21" s="262">
         <v>3</v>
       </c>
       <c r="M21" s="204"/>
       <c r="N21" s="204"/>
       <c r="O21" s="204"/>
-      <c r="P21" s="240" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q21" s="268" t="s">
+      <c r="P21" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q21" s="267" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="240">
+      <c r="R21" s="239">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="263" t="s">
+      <c r="B22" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="263" t="s">
+      <c r="C22" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="263"/>
-      <c r="E22" s="263"/>
-      <c r="F22" s="263"/>
-      <c r="G22" s="263"/>
-      <c r="H22" s="263"/>
-      <c r="I22" s="263"/>
-      <c r="J22" s="263">
-        <v>2</v>
-      </c>
-      <c r="K22" s="263">
+      <c r="D22" s="262"/>
+      <c r="E22" s="262"/>
+      <c r="F22" s="262"/>
+      <c r="G22" s="262"/>
+      <c r="H22" s="262"/>
+      <c r="I22" s="262"/>
+      <c r="J22" s="262">
+        <v>2</v>
+      </c>
+      <c r="K22" s="262">
         <v>2</v>
       </c>
       <c r="M22" s="204"/>
       <c r="N22" s="204"/>
       <c r="O22" s="204"/>
-      <c r="P22" s="240" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="268" t="s">
+      <c r="P22" s="239" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="R22" s="240">
+      <c r="R22" s="239">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="263" t="s">
+      <c r="B23" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="263" t="s">
+      <c r="C23" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="263">
-        <v>1</v>
-      </c>
-      <c r="E23" s="263"/>
-      <c r="F23" s="263"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="263">
-        <v>2</v>
-      </c>
-      <c r="I23" s="263"/>
-      <c r="J23" s="263">
-        <v>1</v>
-      </c>
-      <c r="K23" s="263">
+      <c r="D23" s="262">
+        <v>1</v>
+      </c>
+      <c r="E23" s="262"/>
+      <c r="F23" s="262"/>
+      <c r="G23" s="262"/>
+      <c r="H23" s="262">
+        <v>2</v>
+      </c>
+      <c r="I23" s="262"/>
+      <c r="J23" s="262">
+        <v>1</v>
+      </c>
+      <c r="K23" s="262">
         <v>1</v>
       </c>
       <c r="M23" s="204"/>
       <c r="N23" s="204"/>
       <c r="O23" s="204"/>
-      <c r="P23" s="240" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q23" s="268" t="s">
-        <v>161</v>
-      </c>
-      <c r="R23" s="240">
+      <c r="P23" s="239" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="267" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23" s="239">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="268" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="263" t="s">
+      <c r="C24" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="263">
+      <c r="D24" s="262">
         <v>11</v>
       </c>
-      <c r="E24" s="263">
+      <c r="E24" s="262">
         <v>12</v>
       </c>
-      <c r="F24" s="263" t="s">
+      <c r="F24" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="263" t="s">
+      <c r="G24" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="263" t="s">
+      <c r="H24" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="263" t="s">
+      <c r="I24" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="263" t="s">
+      <c r="J24" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="K24" s="263">
+      <c r="K24" s="262">
         <v>6</v>
       </c>
       <c r="M24" s="204"/>
       <c r="N24" s="204"/>
       <c r="O24" s="204"/>
-      <c r="P24" s="240" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q24" s="240" t="s">
+      <c r="P24" s="239" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q24" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="R24" s="240">
+      <c r="R24" s="239">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="263" t="s">
+      <c r="B25" s="268" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="263" t="s">
+      <c r="C25" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="263">
-        <v>1</v>
-      </c>
-      <c r="E25" s="263">
-        <v>1</v>
-      </c>
-      <c r="F25" s="263"/>
-      <c r="G25" s="263">
-        <v>1</v>
-      </c>
-      <c r="H25" s="263">
-        <v>1</v>
-      </c>
-      <c r="I25" s="263"/>
-      <c r="J25" s="263">
-        <v>1</v>
-      </c>
-      <c r="K25" s="263"/>
+      <c r="D25" s="262">
+        <v>1</v>
+      </c>
+      <c r="E25" s="262">
+        <v>1</v>
+      </c>
+      <c r="F25" s="262"/>
+      <c r="G25" s="262">
+        <v>1</v>
+      </c>
+      <c r="H25" s="262">
+        <v>1</v>
+      </c>
+      <c r="I25" s="262"/>
+      <c r="J25" s="262">
+        <v>1</v>
+      </c>
+      <c r="K25" s="262"/>
       <c r="M25" s="204"/>
       <c r="N25" s="204"/>
       <c r="O25" s="204"/>
     </row>
     <row r="26" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="263" t="s">
+      <c r="B26" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="263" t="s">
+      <c r="C26" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="263"/>
-      <c r="E26" s="263"/>
-      <c r="F26" s="263">
+      <c r="D26" s="262"/>
+      <c r="E26" s="262"/>
+      <c r="F26" s="262">
         <v>10</v>
       </c>
-      <c r="G26" s="263">
+      <c r="G26" s="262">
         <v>7</v>
       </c>
-      <c r="H26" s="263">
+      <c r="H26" s="262">
         <v>4</v>
       </c>
-      <c r="I26" s="263"/>
-      <c r="J26" s="263"/>
-      <c r="K26" s="263">
+      <c r="I26" s="262"/>
+      <c r="J26" s="262"/>
+      <c r="K26" s="262">
         <v>1</v>
       </c>
       <c r="M26" s="204"/>
@@ -21661,34 +21652,34 @@
       <c r="R26" s="204"/>
     </row>
     <row r="27" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="263" t="s">
+      <c r="B27" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="263" t="s">
+      <c r="C27" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="263">
-        <v>1</v>
-      </c>
-      <c r="E27" s="263">
-        <v>1</v>
-      </c>
-      <c r="F27" s="263">
-        <v>2</v>
-      </c>
-      <c r="G27" s="263">
-        <v>1</v>
-      </c>
-      <c r="H27" s="263">
-        <v>2</v>
-      </c>
-      <c r="I27" s="263">
-        <v>2</v>
-      </c>
-      <c r="J27" s="263" t="s">
+      <c r="D27" s="262">
+        <v>1</v>
+      </c>
+      <c r="E27" s="262">
+        <v>1</v>
+      </c>
+      <c r="F27" s="262">
+        <v>2</v>
+      </c>
+      <c r="G27" s="262">
+        <v>1</v>
+      </c>
+      <c r="H27" s="262">
+        <v>2</v>
+      </c>
+      <c r="I27" s="262">
+        <v>2</v>
+      </c>
+      <c r="J27" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="K27" s="263" t="s">
+      <c r="K27" s="262" t="s">
         <v>131</v>
       </c>
       <c r="M27" s="204"/>
@@ -21699,28 +21690,28 @@
       <c r="R27" s="204"/>
     </row>
     <row r="28" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="263" t="s">
+      <c r="B28" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="263" t="s">
+      <c r="C28" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="263"/>
-      <c r="E28" s="263"/>
-      <c r="F28" s="263"/>
-      <c r="G28" s="263">
-        <v>1</v>
-      </c>
-      <c r="H28" s="263">
-        <v>1</v>
-      </c>
-      <c r="I28" s="263">
-        <v>2</v>
-      </c>
-      <c r="J28" s="263">
-        <v>2</v>
-      </c>
-      <c r="K28" s="263"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="262"/>
+      <c r="F28" s="262"/>
+      <c r="G28" s="262">
+        <v>1</v>
+      </c>
+      <c r="H28" s="262">
+        <v>1</v>
+      </c>
+      <c r="I28" s="262">
+        <v>2</v>
+      </c>
+      <c r="J28" s="262">
+        <v>2</v>
+      </c>
+      <c r="K28" s="262"/>
       <c r="M28" s="204"/>
       <c r="N28" s="204"/>
       <c r="O28" s="204"/>
@@ -21729,30 +21720,30 @@
       <c r="R28" s="204"/>
     </row>
     <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="263" t="s">
+      <c r="B29" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="263" t="s">
+      <c r="C29" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="263">
-        <v>1</v>
-      </c>
-      <c r="E29" s="263">
-        <v>1</v>
-      </c>
-      <c r="F29" s="263">
-        <v>3</v>
-      </c>
-      <c r="G29" s="263">
-        <v>2</v>
-      </c>
-      <c r="H29" s="263">
-        <v>2</v>
-      </c>
-      <c r="I29" s="263"/>
-      <c r="J29" s="263"/>
-      <c r="K29" s="263"/>
+      <c r="D29" s="262">
+        <v>1</v>
+      </c>
+      <c r="E29" s="262">
+        <v>1</v>
+      </c>
+      <c r="F29" s="262">
+        <v>3</v>
+      </c>
+      <c r="G29" s="262">
+        <v>2</v>
+      </c>
+      <c r="H29" s="262">
+        <v>2</v>
+      </c>
+      <c r="I29" s="262"/>
+      <c r="J29" s="262"/>
+      <c r="K29" s="262"/>
       <c r="M29" s="204"/>
       <c r="N29" s="204"/>
       <c r="O29" s="204"/>
@@ -21761,34 +21752,34 @@
       <c r="R29" s="204"/>
     </row>
     <row r="30" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="263" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="263" t="s">
+      <c r="B30" s="268" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="263" t="s">
+      <c r="D30" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="263">
-        <v>2</v>
-      </c>
-      <c r="F30" s="263">
-        <v>3</v>
-      </c>
-      <c r="G30" s="263">
-        <v>1</v>
-      </c>
-      <c r="H30" s="263">
-        <v>1</v>
-      </c>
-      <c r="I30" s="263" t="s">
+      <c r="E30" s="262">
+        <v>2</v>
+      </c>
+      <c r="F30" s="262">
+        <v>3</v>
+      </c>
+      <c r="G30" s="262">
+        <v>1</v>
+      </c>
+      <c r="H30" s="262">
+        <v>1</v>
+      </c>
+      <c r="I30" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="263" t="s">
+      <c r="J30" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="K30" s="263">
+      <c r="K30" s="262">
         <v>3</v>
       </c>
       <c r="M30" s="204"/>
@@ -21799,30 +21790,30 @@
       <c r="R30" s="204"/>
     </row>
     <row r="31" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="263" t="s">
+      <c r="B31" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="263" t="s">
+      <c r="C31" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="263">
-        <v>1</v>
-      </c>
-      <c r="E31" s="263">
+      <c r="D31" s="262">
+        <v>1</v>
+      </c>
+      <c r="E31" s="262">
         <v>6</v>
       </c>
-      <c r="F31" s="263">
+      <c r="F31" s="262">
         <v>11</v>
       </c>
-      <c r="G31" s="263">
+      <c r="G31" s="262">
         <v>16</v>
       </c>
-      <c r="H31" s="263">
+      <c r="H31" s="262">
         <v>21</v>
       </c>
-      <c r="I31" s="263"/>
-      <c r="J31" s="263"/>
-      <c r="K31" s="263"/>
+      <c r="I31" s="262"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="262"/>
       <c r="M31" s="204"/>
       <c r="N31" s="204"/>
       <c r="O31" s="204"/>
@@ -21831,30 +21822,30 @@
       <c r="R31" s="204"/>
     </row>
     <row r="32" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="263" t="s">
+      <c r="C32" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="263">
-        <v>2</v>
-      </c>
-      <c r="E32" s="263"/>
-      <c r="F32" s="263"/>
-      <c r="G32" s="263">
-        <v>2</v>
-      </c>
-      <c r="H32" s="263">
-        <v>1</v>
-      </c>
-      <c r="I32" s="263">
-        <v>1</v>
-      </c>
-      <c r="J32" s="263">
-        <v>2</v>
-      </c>
-      <c r="K32" s="263">
+      <c r="D32" s="262">
+        <v>2</v>
+      </c>
+      <c r="E32" s="262"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="262">
+        <v>2</v>
+      </c>
+      <c r="H32" s="262">
+        <v>1</v>
+      </c>
+      <c r="I32" s="262">
+        <v>1</v>
+      </c>
+      <c r="J32" s="262">
+        <v>2</v>
+      </c>
+      <c r="K32" s="262">
         <v>2</v>
       </c>
       <c r="M32" s="204"/>
@@ -21865,24 +21856,24 @@
       <c r="R32" s="204"/>
     </row>
     <row r="33" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="263" t="s">
+      <c r="B33" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="263" t="s">
+      <c r="C33" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="263"/>
-      <c r="E33" s="263">
-        <v>1</v>
-      </c>
-      <c r="F33" s="263">
-        <v>1</v>
-      </c>
-      <c r="G33" s="263"/>
-      <c r="H33" s="263"/>
-      <c r="I33" s="263"/>
-      <c r="J33" s="263"/>
-      <c r="K33" s="263"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="262">
+        <v>1</v>
+      </c>
+      <c r="F33" s="262">
+        <v>1</v>
+      </c>
+      <c r="G33" s="262"/>
+      <c r="H33" s="262"/>
+      <c r="I33" s="262"/>
+      <c r="J33" s="262"/>
+      <c r="K33" s="262"/>
       <c r="M33" s="204"/>
       <c r="N33" s="204"/>
       <c r="O33" s="204"/>
@@ -21891,30 +21882,30 @@
       <c r="R33" s="204"/>
     </row>
     <row r="34" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="263" t="s">
+      <c r="B34" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="263" t="s">
+      <c r="C34" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="263">
-        <v>2</v>
-      </c>
-      <c r="E34" s="263">
-        <v>2</v>
-      </c>
-      <c r="F34" s="263">
-        <v>3</v>
-      </c>
-      <c r="G34" s="263">
-        <v>1</v>
-      </c>
-      <c r="H34" s="263">
-        <v>1</v>
-      </c>
-      <c r="I34" s="263"/>
-      <c r="J34" s="263"/>
-      <c r="K34" s="263"/>
+      <c r="D34" s="262">
+        <v>2</v>
+      </c>
+      <c r="E34" s="262">
+        <v>2</v>
+      </c>
+      <c r="F34" s="262">
+        <v>3</v>
+      </c>
+      <c r="G34" s="262">
+        <v>1</v>
+      </c>
+      <c r="H34" s="262">
+        <v>1</v>
+      </c>
+      <c r="I34" s="262"/>
+      <c r="J34" s="262"/>
+      <c r="K34" s="262"/>
       <c r="M34" s="204"/>
       <c r="N34" s="204"/>
       <c r="O34" s="204"/>
@@ -21923,30 +21914,30 @@
       <c r="R34" s="204"/>
     </row>
     <row r="35" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="263" t="s">
+      <c r="C35" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="263">
-        <v>1</v>
-      </c>
-      <c r="E35" s="263">
-        <v>1</v>
-      </c>
-      <c r="F35" s="263">
-        <v>1</v>
-      </c>
-      <c r="G35" s="263"/>
-      <c r="H35" s="263">
-        <v>2</v>
-      </c>
-      <c r="I35" s="263">
-        <v>2</v>
-      </c>
-      <c r="J35" s="263"/>
-      <c r="K35" s="263"/>
+      <c r="D35" s="262">
+        <v>1</v>
+      </c>
+      <c r="E35" s="262">
+        <v>1</v>
+      </c>
+      <c r="F35" s="262">
+        <v>1</v>
+      </c>
+      <c r="G35" s="262"/>
+      <c r="H35" s="262">
+        <v>2</v>
+      </c>
+      <c r="I35" s="262">
+        <v>2</v>
+      </c>
+      <c r="J35" s="262"/>
+      <c r="K35" s="262"/>
       <c r="M35" s="204"/>
       <c r="N35" s="204"/>
       <c r="O35" s="204"/>
@@ -21955,34 +21946,34 @@
       <c r="R35" s="204"/>
     </row>
     <row r="36" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="263" t="s">
+      <c r="B36" s="268" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="263" t="s">
+      <c r="C36" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="263">
-        <v>1</v>
-      </c>
-      <c r="E36" s="263">
-        <v>2</v>
-      </c>
-      <c r="F36" s="263">
-        <v>2</v>
-      </c>
-      <c r="G36" s="263">
-        <v>3</v>
-      </c>
-      <c r="H36" s="263">
-        <v>3</v>
-      </c>
-      <c r="I36" s="263">
-        <v>3</v>
-      </c>
-      <c r="J36" s="263" t="s">
+      <c r="D36" s="262">
+        <v>1</v>
+      </c>
+      <c r="E36" s="262">
+        <v>2</v>
+      </c>
+      <c r="F36" s="262">
+        <v>2</v>
+      </c>
+      <c r="G36" s="262">
+        <v>3</v>
+      </c>
+      <c r="H36" s="262">
+        <v>3</v>
+      </c>
+      <c r="I36" s="262">
+        <v>3</v>
+      </c>
+      <c r="J36" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="K36" s="263" t="s">
+      <c r="K36" s="262" t="s">
         <v>131</v>
       </c>
       <c r="M36" s="204"/>
@@ -21993,34 +21984,34 @@
       <c r="R36" s="204"/>
     </row>
     <row r="37" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="263" t="s">
+      <c r="B37" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="263" t="s">
+      <c r="C37" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="263">
-        <v>1</v>
-      </c>
-      <c r="E37" s="263">
-        <v>1</v>
-      </c>
-      <c r="F37" s="263">
-        <v>1</v>
-      </c>
-      <c r="G37" s="263">
-        <v>1</v>
-      </c>
-      <c r="H37" s="263">
-        <v>1</v>
-      </c>
-      <c r="I37" s="263">
-        <v>2</v>
-      </c>
-      <c r="J37" s="263" t="s">
+      <c r="D37" s="262">
+        <v>1</v>
+      </c>
+      <c r="E37" s="262">
+        <v>1</v>
+      </c>
+      <c r="F37" s="262">
+        <v>1</v>
+      </c>
+      <c r="G37" s="262">
+        <v>1</v>
+      </c>
+      <c r="H37" s="262">
+        <v>1</v>
+      </c>
+      <c r="I37" s="262">
+        <v>2</v>
+      </c>
+      <c r="J37" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="K37" s="263" t="s">
+      <c r="K37" s="262" t="s">
         <v>131</v>
       </c>
       <c r="M37" s="204"/>
@@ -22031,32 +22022,32 @@
       <c r="R37" s="204"/>
     </row>
     <row r="38" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="263" t="s">
+      <c r="B38" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="263" t="s">
+      <c r="C38" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="263">
-        <v>2</v>
-      </c>
-      <c r="E38" s="263">
-        <v>2</v>
-      </c>
-      <c r="F38" s="263"/>
-      <c r="G38" s="263">
-        <v>1</v>
-      </c>
-      <c r="H38" s="263">
-        <v>1</v>
-      </c>
-      <c r="I38" s="263">
-        <v>1</v>
-      </c>
-      <c r="J38" s="263">
-        <v>1</v>
-      </c>
-      <c r="K38" s="263"/>
+      <c r="D38" s="262">
+        <v>2</v>
+      </c>
+      <c r="E38" s="262">
+        <v>2</v>
+      </c>
+      <c r="F38" s="262"/>
+      <c r="G38" s="262">
+        <v>1</v>
+      </c>
+      <c r="H38" s="262">
+        <v>1</v>
+      </c>
+      <c r="I38" s="262">
+        <v>1</v>
+      </c>
+      <c r="J38" s="262">
+        <v>1</v>
+      </c>
+      <c r="K38" s="262"/>
       <c r="M38" s="204"/>
       <c r="N38" s="204"/>
       <c r="O38" s="204"/>
@@ -22065,34 +22056,34 @@
       <c r="R38" s="204"/>
     </row>
     <row r="39" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="263" t="s">
+      <c r="B39" s="268" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="263" t="s">
+      <c r="C39" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="263">
-        <v>1</v>
-      </c>
-      <c r="E39" s="263">
-        <v>1</v>
-      </c>
-      <c r="F39" s="263">
-        <v>2</v>
-      </c>
-      <c r="G39" s="263">
-        <v>2</v>
-      </c>
-      <c r="H39" s="263">
-        <v>3</v>
-      </c>
-      <c r="I39" s="263">
-        <v>3</v>
-      </c>
-      <c r="J39" s="263">
-        <v>3</v>
-      </c>
-      <c r="K39" s="263">
+      <c r="D39" s="262">
+        <v>1</v>
+      </c>
+      <c r="E39" s="262">
+        <v>1</v>
+      </c>
+      <c r="F39" s="262">
+        <v>2</v>
+      </c>
+      <c r="G39" s="262">
+        <v>2</v>
+      </c>
+      <c r="H39" s="262">
+        <v>3</v>
+      </c>
+      <c r="I39" s="262">
+        <v>3</v>
+      </c>
+      <c r="J39" s="262">
+        <v>3</v>
+      </c>
+      <c r="K39" s="262">
         <v>3</v>
       </c>
       <c r="M39" s="204"/>
@@ -22103,32 +22094,32 @@
       <c r="R39" s="204"/>
     </row>
     <row r="40" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="263" t="s">
+      <c r="B40" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="263" t="s">
+      <c r="C40" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="263">
-        <v>3</v>
-      </c>
-      <c r="E40" s="263">
-        <v>3</v>
-      </c>
-      <c r="F40" s="263">
-        <v>3</v>
-      </c>
-      <c r="G40" s="263">
-        <v>3</v>
-      </c>
-      <c r="H40" s="263">
-        <v>3</v>
-      </c>
-      <c r="I40" s="263"/>
-      <c r="J40" s="263">
-        <v>3</v>
-      </c>
-      <c r="K40" s="263">
+      <c r="D40" s="262">
+        <v>3</v>
+      </c>
+      <c r="E40" s="262">
+        <v>3</v>
+      </c>
+      <c r="F40" s="262">
+        <v>3</v>
+      </c>
+      <c r="G40" s="262">
+        <v>3</v>
+      </c>
+      <c r="H40" s="262">
+        <v>3</v>
+      </c>
+      <c r="I40" s="262"/>
+      <c r="J40" s="262">
+        <v>3</v>
+      </c>
+      <c r="K40" s="262">
         <v>3</v>
       </c>
       <c r="M40" s="204"/>
@@ -22139,34 +22130,34 @@
       <c r="R40" s="204"/>
     </row>
     <row r="41" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="263" t="s">
+      <c r="B41" s="268" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="263" t="s">
+      <c r="C41" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="263">
-        <v>1</v>
-      </c>
-      <c r="E41" s="263">
-        <v>1</v>
-      </c>
-      <c r="F41" s="263">
-        <v>1</v>
-      </c>
-      <c r="G41" s="263">
-        <v>2</v>
-      </c>
-      <c r="H41" s="263">
-        <v>2</v>
-      </c>
-      <c r="I41" s="263">
-        <v>2</v>
-      </c>
-      <c r="J41" s="263">
-        <v>2</v>
-      </c>
-      <c r="K41" s="263"/>
+      <c r="D41" s="262">
+        <v>1</v>
+      </c>
+      <c r="E41" s="262">
+        <v>1</v>
+      </c>
+      <c r="F41" s="262">
+        <v>1</v>
+      </c>
+      <c r="G41" s="262">
+        <v>2</v>
+      </c>
+      <c r="H41" s="262">
+        <v>2</v>
+      </c>
+      <c r="I41" s="262">
+        <v>2</v>
+      </c>
+      <c r="J41" s="262">
+        <v>2</v>
+      </c>
+      <c r="K41" s="262"/>
       <c r="M41" s="204"/>
       <c r="N41" s="204"/>
       <c r="O41" s="204"/>
@@ -22175,28 +22166,28 @@
       <c r="R41" s="204"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="263" t="s">
+      <c r="B42" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="263" t="s">
+      <c r="C42" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="263"/>
-      <c r="E42" s="263"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="263">
-        <v>2</v>
-      </c>
-      <c r="H42" s="263">
-        <v>2</v>
-      </c>
-      <c r="I42" s="263">
-        <v>2</v>
-      </c>
-      <c r="J42" s="263">
-        <v>1</v>
-      </c>
-      <c r="K42" s="263">
+      <c r="D42" s="262"/>
+      <c r="E42" s="262"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="262">
+        <v>2</v>
+      </c>
+      <c r="H42" s="262">
+        <v>2</v>
+      </c>
+      <c r="I42" s="262">
+        <v>2</v>
+      </c>
+      <c r="J42" s="262">
+        <v>1</v>
+      </c>
+      <c r="K42" s="262">
         <v>1</v>
       </c>
       <c r="M42" s="204"/>
@@ -22207,34 +22198,34 @@
       <c r="R42" s="204"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="263" t="s">
+      <c r="B43" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="263" t="s">
+      <c r="C43" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="263">
-        <v>1</v>
-      </c>
-      <c r="E43" s="263">
-        <v>1</v>
-      </c>
-      <c r="F43" s="263">
-        <v>3</v>
-      </c>
-      <c r="G43" s="263">
-        <v>2</v>
-      </c>
-      <c r="H43" s="263">
-        <v>2</v>
-      </c>
-      <c r="I43" s="263">
-        <v>2</v>
-      </c>
-      <c r="J43" s="263">
-        <v>3</v>
-      </c>
-      <c r="K43" s="263">
+      <c r="D43" s="262">
+        <v>1</v>
+      </c>
+      <c r="E43" s="262">
+        <v>1</v>
+      </c>
+      <c r="F43" s="262">
+        <v>3</v>
+      </c>
+      <c r="G43" s="262">
+        <v>2</v>
+      </c>
+      <c r="H43" s="262">
+        <v>2</v>
+      </c>
+      <c r="I43" s="262">
+        <v>2</v>
+      </c>
+      <c r="J43" s="262">
+        <v>3</v>
+      </c>
+      <c r="K43" s="262">
         <v>3</v>
       </c>
       <c r="M43" s="204"/>
@@ -22245,20 +22236,20 @@
       <c r="R43" s="204"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="263" t="s">
+      <c r="B44" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="263" t="s">
+      <c r="C44" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="263"/>
-      <c r="E44" s="263"/>
-      <c r="F44" s="263"/>
-      <c r="G44" s="263"/>
-      <c r="H44" s="263"/>
-      <c r="I44" s="263"/>
-      <c r="J44" s="263"/>
-      <c r="K44" s="263"/>
+      <c r="D44" s="262"/>
+      <c r="E44" s="262"/>
+      <c r="F44" s="262"/>
+      <c r="G44" s="262"/>
+      <c r="H44" s="262"/>
+      <c r="I44" s="262"/>
+      <c r="J44" s="262"/>
+      <c r="K44" s="262"/>
       <c r="L44" s="202"/>
       <c r="P44" s="204"/>
       <c r="Q44" s="204"/>
@@ -22295,7 +22286,7 @@
       <c r="N46" s="204"/>
       <c r="O46" s="204"/>
       <c r="P46" s="204"/>
-      <c r="Q46" s="239"/>
+      <c r="Q46" s="238"/>
       <c r="R46" s="204"/>
     </row>
     <row r="47" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -22309,9 +22300,9 @@
       <c r="I47" s="206"/>
       <c r="J47" s="206"/>
       <c r="K47" s="206"/>
-      <c r="P47" s="239"/>
+      <c r="P47" s="238"/>
       <c r="Q47" s="204"/>
-      <c r="R47" s="239"/>
+      <c r="R47" s="238"/>
     </row>
     <row r="48" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="207" t="s">
@@ -22331,11 +22322,11 @@
       <c r="R48" s="204"/>
     </row>
     <row r="49" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="211" t="s">
+      <c r="B49" s="271" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="203" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D49" s="211" t="s">
         <v>63</v>
@@ -22369,7 +22360,7 @@
       <c r="R49" s="204"/>
     </row>
     <row r="50" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="214" t="s">
+      <c r="B50" s="269" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="214" t="s">
@@ -22395,7 +22386,7 @@
       <c r="R50" s="204"/>
     </row>
     <row r="51" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="214" t="s">
+      <c r="B51" s="269" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="214" t="s">
@@ -22431,7 +22422,7 @@
       <c r="R51" s="204"/>
     </row>
     <row r="52" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="214" t="s">
+      <c r="B52" s="269" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="214" t="s">
@@ -22466,7 +22457,7 @@
       <c r="R52" s="204"/>
     </row>
     <row r="53" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="214" t="s">
+      <c r="B53" s="269" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="214" t="s">
@@ -22490,7 +22481,7 @@
       <c r="R53" s="204"/>
     </row>
     <row r="54" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="214" t="s">
+      <c r="B54" s="269" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="214" t="s">
@@ -22510,7 +22501,7 @@
       <c r="R54" s="204"/>
     </row>
     <row r="55" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="214" t="s">
+      <c r="B55" s="269" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="214" t="s">
@@ -22536,8 +22527,8 @@
       <c r="T55" s="14"/>
     </row>
     <row r="56" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="214" t="s">
-        <v>165</v>
+      <c r="B56" s="269" t="s">
+        <v>7</v>
       </c>
       <c r="C56" s="214" t="s">
         <v>51</v>
@@ -22570,8 +22561,8 @@
       <c r="T56" s="14"/>
     </row>
     <row r="57" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="214" t="s">
-        <v>141</v>
+      <c r="B57" s="269" t="s">
+        <v>8</v>
       </c>
       <c r="C57" s="214" t="s">
         <v>51</v>
@@ -22602,7 +22593,7 @@
       <c r="T57" s="14"/>
     </row>
     <row r="58" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="214" t="s">
+      <c r="B58" s="269" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="214" t="s">
@@ -22634,7 +22625,7 @@
       <c r="T58" s="14"/>
     </row>
     <row r="59" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="214" t="s">
+      <c r="B59" s="269" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="214" t="s">
@@ -22665,7 +22656,7 @@
       <c r="T59" s="14"/>
     </row>
     <row r="60" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="214" t="s">
+      <c r="B60" s="269" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="214" t="s">
@@ -22703,20 +22694,20 @@
       <c r="T60" s="14"/>
     </row>
     <row r="61" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="214" t="s">
+      <c r="B61" s="269" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="214" t="s">
         <v>51</v>
       </c>
       <c r="D61" s="214" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" s="214">
         <v>1</v>
       </c>
       <c r="F61" s="214" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G61" s="214">
         <v>2</v>
@@ -22735,7 +22726,7 @@
       <c r="T61" s="14"/>
     </row>
     <row r="62" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="214" t="s">
+      <c r="B62" s="269" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="214" t="s">
@@ -22767,8 +22758,8 @@
       <c r="T62" s="14"/>
     </row>
     <row r="63" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="205" t="s">
-        <v>150</v>
+      <c r="B63" s="270" t="s">
+        <v>18</v>
       </c>
       <c r="C63" s="205" t="s">
         <v>51</v>
@@ -22797,7 +22788,7 @@
       <c r="T63" s="14"/>
     </row>
     <row r="64" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="205" t="s">
+      <c r="B64" s="270" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="205" t="s">
@@ -22823,7 +22814,7 @@
       <c r="T64" s="14"/>
     </row>
     <row r="65" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="205" t="s">
+      <c r="B65" s="270" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="205" t="s">
@@ -22857,7 +22848,7 @@
       <c r="T65" s="14"/>
     </row>
     <row r="66" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="205" t="s">
+      <c r="B66" s="270" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="205" t="s">
@@ -22891,7 +22882,7 @@
       <c r="T66" s="14"/>
     </row>
     <row r="67" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B67" s="205" t="s">
+      <c r="B67" s="270" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="205" t="s">
@@ -22925,7 +22916,7 @@
       <c r="T67" s="14"/>
     </row>
     <row r="68" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B68" s="205" t="s">
+      <c r="B68" s="270" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="205" t="s">
@@ -22955,7 +22946,7 @@
       <c r="T68" s="14"/>
     </row>
     <row r="69" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B69" s="205" t="s">
+      <c r="B69" s="270" t="s">
         <v>38</v>
       </c>
       <c r="C69" s="205" t="s">
@@ -22985,7 +22976,7 @@
       <c r="T69" s="14"/>
     </row>
     <row r="70" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="205" t="s">
+      <c r="B70" s="270" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="205" t="s">
@@ -23023,7 +23014,7 @@
       <c r="T70" s="14"/>
     </row>
     <row r="71" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B71" s="205" t="s">
+      <c r="B71" s="270" t="s">
         <v>41</v>
       </c>
       <c r="C71" s="205" t="s">
@@ -23055,7 +23046,7 @@
       <c r="T71" s="14"/>
     </row>
     <row r="72" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="205" t="s">
+      <c r="B72" s="270" t="s">
         <v>43</v>
       </c>
       <c r="C72" s="205" t="s">
@@ -23085,7 +23076,7 @@
       <c r="T72" s="14"/>
     </row>
     <row r="73" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="205" t="s">
+      <c r="B73" s="270" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="205" t="s">
@@ -23123,7 +23114,7 @@
       <c r="T73" s="14"/>
     </row>
     <row r="74" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B74" s="205" t="s">
+      <c r="B74" s="270" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="205" t="s">
@@ -23153,7 +23144,7 @@
       <c r="T74" s="14"/>
     </row>
     <row r="75" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="205" t="s">
+      <c r="B75" s="270" t="s">
         <v>13</v>
       </c>
       <c r="C75" s="205" t="s">
@@ -23185,8 +23176,8 @@
       <c r="T75" s="14"/>
     </row>
     <row r="76" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="205" t="s">
-        <v>163</v>
+      <c r="B76" s="270" t="s">
+        <v>16</v>
       </c>
       <c r="C76" s="205" t="s">
         <v>50</v>
@@ -23224,7 +23215,7 @@
       <c r="T76" s="14"/>
     </row>
     <row r="77" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="205" t="s">
+      <c r="B77" s="270" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="205" t="s">
@@ -23260,7 +23251,7 @@
     </row>
     <row r="78" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="206"/>
-      <c r="B78" s="205" t="s">
+      <c r="B78" s="270" t="s">
         <v>120</v>
       </c>
       <c r="C78" s="205" t="s">
@@ -23295,7 +23286,7 @@
     </row>
     <row r="79" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="206"/>
-      <c r="B79" s="205" t="s">
+      <c r="B79" s="270" t="s">
         <v>22</v>
       </c>
       <c r="C79" s="205" t="s">
@@ -23334,7 +23325,7 @@
     </row>
     <row r="80" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="206"/>
-      <c r="B80" s="205" t="s">
+      <c r="B80" s="270" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="205" t="s">
@@ -23369,7 +23360,7 @@
     </row>
     <row r="81" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="206"/>
-      <c r="B81" s="205" t="s">
+      <c r="B81" s="270" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="205" t="s">
@@ -23410,7 +23401,7 @@
     </row>
     <row r="82" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="206"/>
-      <c r="B82" s="205" t="s">
+      <c r="B82" s="270" t="s">
         <v>27</v>
       </c>
       <c r="C82" s="205" t="s">
@@ -23451,7 +23442,7 @@
     </row>
     <row r="83" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="206"/>
-      <c r="B83" s="205" t="s">
+      <c r="B83" s="270" t="s">
         <v>29</v>
       </c>
       <c r="C83" s="205" t="s">
@@ -23488,7 +23479,7 @@
     </row>
     <row r="84" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="206"/>
-      <c r="B84" s="205" t="s">
+      <c r="B84" s="270" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="205" t="s">
@@ -23523,7 +23514,7 @@
     </row>
     <row r="85" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="206"/>
-      <c r="B85" s="205" t="s">
+      <c r="B85" s="270" t="s">
         <v>34</v>
       </c>
       <c r="C85" s="205" t="s">
@@ -23562,7 +23553,7 @@
     </row>
     <row r="86" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="206"/>
-      <c r="B86" s="205" t="s">
+      <c r="B86" s="270" t="s">
         <v>39</v>
       </c>
       <c r="C86" s="205" t="s">
@@ -23591,7 +23582,7 @@
     </row>
     <row r="87" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="206"/>
-      <c r="B87" s="205" t="s">
+      <c r="B87" s="270" t="s">
         <v>44</v>
       </c>
       <c r="C87" s="205" t="s">
@@ -23628,7 +23619,7 @@
     </row>
     <row r="88" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="206"/>
-      <c r="B88" s="205" t="s">
+      <c r="B88" s="270" t="s">
         <v>45</v>
       </c>
       <c r="C88" s="205" t="s">
@@ -23663,7 +23654,7 @@
     </row>
     <row r="89" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="206"/>
-      <c r="B89" s="205" t="s">
+      <c r="B89" s="270" t="s">
         <v>46</v>
       </c>
       <c r="C89" s="205" t="s">
@@ -23700,7 +23691,7 @@
     </row>
     <row r="90" spans="1:20" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="206"/>
-      <c r="B90" s="205" t="s">
+      <c r="B90" s="270" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="205" t="s">
@@ -23818,18 +23809,18 @@
       <c r="T94" s="14"/>
     </row>
     <row r="95" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B95" s="264" t="s">
+      <c r="B95" s="263" t="s">
         <v>60</v>
       </c>
-      <c r="C95" s="265"/>
-      <c r="D95" s="265"/>
-      <c r="E95" s="265"/>
-      <c r="F95" s="265"/>
-      <c r="G95" s="265"/>
-      <c r="H95" s="265"/>
-      <c r="I95" s="265"/>
-      <c r="J95" s="265"/>
-      <c r="K95" s="265"/>
+      <c r="C95" s="264"/>
+      <c r="D95" s="264"/>
+      <c r="E95" s="264"/>
+      <c r="F95" s="264"/>
+      <c r="G95" s="264"/>
+      <c r="H95" s="264"/>
+      <c r="I95" s="264"/>
+      <c r="J95" s="264"/>
+      <c r="K95" s="264"/>
       <c r="O95" s="204"/>
       <c r="P95" s="204"/>
       <c r="Q95" s="204"/>
@@ -23838,34 +23829,34 @@
       <c r="T95" s="14"/>
     </row>
     <row r="96" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B96" s="262" t="s">
+      <c r="B96" s="261" t="s">
         <v>122</v>
       </c>
-      <c r="C96" s="262" t="s">
+      <c r="C96" s="261" t="s">
         <v>123</v>
       </c>
-      <c r="D96" s="262" t="s">
+      <c r="D96" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="E96" s="262" t="s">
+      <c r="E96" s="261" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="262" t="s">
+      <c r="F96" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="G96" s="262" t="s">
+      <c r="G96" s="261" t="s">
         <v>68</v>
       </c>
-      <c r="H96" s="262" t="s">
+      <c r="H96" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="I96" s="262" t="s">
+      <c r="I96" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="262" t="s">
+      <c r="J96" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="K96" s="262" t="s">
+      <c r="K96" s="261" t="s">
         <v>74</v>
       </c>
       <c r="L96" s="202" t="s">
@@ -23878,30 +23869,30 @@
       <c r="T96" s="14"/>
     </row>
     <row r="97" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B97" s="263" t="s">
+      <c r="B97" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="263" t="s">
+      <c r="C97" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="263"/>
-      <c r="E97" s="263"/>
-      <c r="F97" s="263">
-        <v>1</v>
-      </c>
-      <c r="G97" s="263">
-        <v>1</v>
-      </c>
-      <c r="H97" s="263">
-        <v>1</v>
-      </c>
-      <c r="I97" s="263">
-        <v>1</v>
-      </c>
-      <c r="J97" s="263">
-        <v>1</v>
-      </c>
-      <c r="K97" s="263">
+      <c r="D97" s="262"/>
+      <c r="E97" s="262"/>
+      <c r="F97" s="262">
+        <v>1</v>
+      </c>
+      <c r="G97" s="262">
+        <v>1</v>
+      </c>
+      <c r="H97" s="262">
+        <v>1</v>
+      </c>
+      <c r="I97" s="262">
+        <v>1</v>
+      </c>
+      <c r="J97" s="262">
+        <v>1</v>
+      </c>
+      <c r="K97" s="262">
         <v>1</v>
       </c>
       <c r="L97" s="202"/>
@@ -23909,63 +23900,63 @@
       <c r="Q97" s="204"/>
     </row>
     <row r="98" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="263" t="s">
+      <c r="B98" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="263" t="s">
+      <c r="C98" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D98" s="263">
-        <v>1</v>
-      </c>
-      <c r="E98" s="263">
-        <v>1</v>
-      </c>
-      <c r="F98" s="263">
-        <v>1</v>
-      </c>
-      <c r="G98" s="263">
-        <v>1</v>
-      </c>
-      <c r="H98" s="263">
-        <v>1</v>
-      </c>
-      <c r="I98" s="263">
-        <v>1</v>
-      </c>
-      <c r="J98" s="263"/>
-      <c r="K98" s="263"/>
+      <c r="D98" s="262">
+        <v>1</v>
+      </c>
+      <c r="E98" s="262">
+        <v>1</v>
+      </c>
+      <c r="F98" s="262">
+        <v>1</v>
+      </c>
+      <c r="G98" s="262">
+        <v>1</v>
+      </c>
+      <c r="H98" s="262">
+        <v>1</v>
+      </c>
+      <c r="I98" s="262">
+        <v>1</v>
+      </c>
+      <c r="J98" s="262"/>
+      <c r="K98" s="262"/>
       <c r="L98" s="202"/>
       <c r="P98" s="204"/>
       <c r="Q98" s="204"/>
     </row>
     <row r="99" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B99" s="263" t="s">
+      <c r="B99" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="263" t="s">
+      <c r="C99" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D99" s="263"/>
-      <c r="E99" s="263">
-        <v>1</v>
-      </c>
-      <c r="F99" s="263">
-        <v>1</v>
-      </c>
-      <c r="G99" s="263">
-        <v>1</v>
-      </c>
-      <c r="H99" s="263">
-        <v>1</v>
-      </c>
-      <c r="I99" s="263">
-        <v>2</v>
-      </c>
-      <c r="J99" s="263">
-        <v>2</v>
-      </c>
-      <c r="K99" s="263">
+      <c r="D99" s="262"/>
+      <c r="E99" s="262">
+        <v>1</v>
+      </c>
+      <c r="F99" s="262">
+        <v>1</v>
+      </c>
+      <c r="G99" s="262">
+        <v>1</v>
+      </c>
+      <c r="H99" s="262">
+        <v>1</v>
+      </c>
+      <c r="I99" s="262">
+        <v>2</v>
+      </c>
+      <c r="J99" s="262">
+        <v>2</v>
+      </c>
+      <c r="K99" s="262">
         <v>2</v>
       </c>
       <c r="L99" s="202"/>
@@ -23973,49 +23964,49 @@
       <c r="Q99" s="204"/>
     </row>
     <row r="100" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B100" s="263" t="s">
+      <c r="B100" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="C100" s="263" t="s">
+      <c r="C100" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="263"/>
-      <c r="E100" s="263"/>
-      <c r="F100" s="263"/>
-      <c r="G100" s="263">
-        <v>1</v>
-      </c>
-      <c r="H100" s="263">
-        <v>1</v>
-      </c>
-      <c r="I100" s="263">
-        <v>1</v>
-      </c>
-      <c r="J100" s="263"/>
-      <c r="K100" s="263"/>
+      <c r="D100" s="262"/>
+      <c r="E100" s="262"/>
+      <c r="F100" s="262"/>
+      <c r="G100" s="262">
+        <v>1</v>
+      </c>
+      <c r="H100" s="262">
+        <v>1</v>
+      </c>
+      <c r="I100" s="262">
+        <v>1</v>
+      </c>
+      <c r="J100" s="262"/>
+      <c r="K100" s="262"/>
       <c r="L100" s="202"/>
       <c r="P100" s="204"/>
       <c r="Q100" s="204"/>
     </row>
     <row r="101" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B101" s="263" t="s">
+      <c r="B101" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="263" t="s">
+      <c r="C101" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="263">
-        <v>1</v>
-      </c>
-      <c r="E101" s="263"/>
-      <c r="F101" s="263"/>
-      <c r="G101" s="263"/>
-      <c r="H101" s="263"/>
-      <c r="I101" s="263"/>
-      <c r="J101" s="263">
-        <v>1</v>
-      </c>
-      <c r="K101" s="263">
+      <c r="D101" s="262">
+        <v>1</v>
+      </c>
+      <c r="E101" s="262"/>
+      <c r="F101" s="262"/>
+      <c r="G101" s="262"/>
+      <c r="H101" s="262"/>
+      <c r="I101" s="262"/>
+      <c r="J101" s="262">
+        <v>1</v>
+      </c>
+      <c r="K101" s="262">
         <v>1</v>
       </c>
       <c r="L101" s="202"/>
@@ -24023,144 +24014,144 @@
       <c r="Q101" s="204"/>
     </row>
     <row r="102" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B102" s="263" t="s">
-        <v>166</v>
-      </c>
-      <c r="C102" s="263" t="s">
+      <c r="B102" s="268" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D102" s="263"/>
-      <c r="E102" s="263">
-        <v>1</v>
-      </c>
-      <c r="F102" s="263">
-        <v>1</v>
-      </c>
-      <c r="G102" s="263">
-        <v>1</v>
-      </c>
-      <c r="H102" s="263"/>
-      <c r="I102" s="263"/>
-      <c r="J102" s="263"/>
-      <c r="K102" s="263"/>
+      <c r="D102" s="262"/>
+      <c r="E102" s="262">
+        <v>1</v>
+      </c>
+      <c r="F102" s="262">
+        <v>1</v>
+      </c>
+      <c r="G102" s="262">
+        <v>1</v>
+      </c>
+      <c r="H102" s="262"/>
+      <c r="I102" s="262"/>
+      <c r="J102" s="262"/>
+      <c r="K102" s="262"/>
       <c r="L102" s="202"/>
       <c r="P102" s="204"/>
       <c r="Q102" s="204"/>
     </row>
     <row r="103" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B103" s="263" t="s">
+      <c r="B103" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="263" t="s">
+      <c r="C103" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="263">
-        <v>1</v>
-      </c>
-      <c r="E103" s="263">
-        <v>1</v>
-      </c>
-      <c r="F103" s="263">
-        <v>1</v>
-      </c>
-      <c r="G103" s="263">
-        <v>2</v>
-      </c>
-      <c r="H103" s="263">
-        <v>2</v>
-      </c>
-      <c r="I103" s="263">
-        <v>2</v>
-      </c>
-      <c r="J103" s="263"/>
-      <c r="K103" s="263"/>
+      <c r="D103" s="262">
+        <v>1</v>
+      </c>
+      <c r="E103" s="262">
+        <v>1</v>
+      </c>
+      <c r="F103" s="262">
+        <v>1</v>
+      </c>
+      <c r="G103" s="262">
+        <v>2</v>
+      </c>
+      <c r="H103" s="262">
+        <v>2</v>
+      </c>
+      <c r="I103" s="262">
+        <v>2</v>
+      </c>
+      <c r="J103" s="262"/>
+      <c r="K103" s="262"/>
       <c r="L103" s="202"/>
       <c r="P103" s="204"/>
       <c r="Q103" s="204"/>
     </row>
     <row r="104" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B104" s="263" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="263" t="s">
+      <c r="B104" s="268" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D104" s="263"/>
-      <c r="E104" s="263"/>
-      <c r="F104" s="263">
-        <v>2</v>
-      </c>
-      <c r="G104" s="263">
-        <v>1</v>
-      </c>
-      <c r="H104" s="263">
-        <v>3</v>
-      </c>
-      <c r="I104" s="263"/>
-      <c r="J104" s="263"/>
-      <c r="K104" s="263"/>
+      <c r="D104" s="262"/>
+      <c r="E104" s="262"/>
+      <c r="F104" s="262">
+        <v>2</v>
+      </c>
+      <c r="G104" s="262">
+        <v>1</v>
+      </c>
+      <c r="H104" s="262">
+        <v>3</v>
+      </c>
+      <c r="I104" s="262"/>
+      <c r="J104" s="262"/>
+      <c r="K104" s="262"/>
       <c r="L104" s="202"/>
       <c r="P104" s="204"/>
       <c r="Q104" s="204"/>
     </row>
     <row r="105" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B105" s="263" t="s">
+      <c r="B105" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="263" t="s">
+      <c r="C105" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D105" s="263">
-        <v>1</v>
-      </c>
-      <c r="E105" s="263">
-        <v>1</v>
-      </c>
-      <c r="F105" s="263">
-        <v>1</v>
-      </c>
-      <c r="G105" s="263">
-        <v>1</v>
-      </c>
-      <c r="H105" s="263">
-        <v>1</v>
-      </c>
-      <c r="I105" s="263">
-        <v>1</v>
-      </c>
-      <c r="J105" s="263">
-        <v>1</v>
-      </c>
-      <c r="K105" s="263"/>
+      <c r="D105" s="262">
+        <v>1</v>
+      </c>
+      <c r="E105" s="262">
+        <v>1</v>
+      </c>
+      <c r="F105" s="262">
+        <v>1</v>
+      </c>
+      <c r="G105" s="262">
+        <v>1</v>
+      </c>
+      <c r="H105" s="262">
+        <v>1</v>
+      </c>
+      <c r="I105" s="262">
+        <v>1</v>
+      </c>
+      <c r="J105" s="262">
+        <v>1</v>
+      </c>
+      <c r="K105" s="262"/>
       <c r="L105" s="202"/>
       <c r="P105" s="204"/>
       <c r="Q105" s="204"/>
     </row>
     <row r="106" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B106" s="263" t="s">
+      <c r="B106" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="263" t="s">
+      <c r="C106" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D106" s="263"/>
-      <c r="E106" s="263">
-        <v>2</v>
-      </c>
-      <c r="F106" s="263">
-        <v>3</v>
-      </c>
-      <c r="G106" s="263">
-        <v>3</v>
-      </c>
-      <c r="H106" s="263">
-        <v>3</v>
-      </c>
-      <c r="I106" s="263">
-        <v>1</v>
-      </c>
-      <c r="J106" s="263"/>
-      <c r="K106" s="263">
+      <c r="D106" s="262"/>
+      <c r="E106" s="262">
+        <v>2</v>
+      </c>
+      <c r="F106" s="262">
+        <v>3</v>
+      </c>
+      <c r="G106" s="262">
+        <v>3</v>
+      </c>
+      <c r="H106" s="262">
+        <v>3</v>
+      </c>
+      <c r="I106" s="262">
+        <v>1</v>
+      </c>
+      <c r="J106" s="262"/>
+      <c r="K106" s="262">
         <v>3</v>
       </c>
       <c r="L106" s="202"/>
@@ -24168,34 +24159,34 @@
       <c r="Q106" s="204"/>
     </row>
     <row r="107" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B107" s="263" t="s">
+      <c r="B107" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="263" t="s">
+      <c r="C107" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D107" s="263">
-        <v>3</v>
-      </c>
-      <c r="E107" s="263">
-        <v>3</v>
-      </c>
-      <c r="F107" s="263">
-        <v>3</v>
-      </c>
-      <c r="G107" s="263">
-        <v>3</v>
-      </c>
-      <c r="H107" s="263">
-        <v>3</v>
-      </c>
-      <c r="I107" s="263">
-        <v>2</v>
-      </c>
-      <c r="J107" s="263">
-        <v>1</v>
-      </c>
-      <c r="K107" s="263">
+      <c r="D107" s="262">
+        <v>3</v>
+      </c>
+      <c r="E107" s="262">
+        <v>3</v>
+      </c>
+      <c r="F107" s="262">
+        <v>3</v>
+      </c>
+      <c r="G107" s="262">
+        <v>3</v>
+      </c>
+      <c r="H107" s="262">
+        <v>3</v>
+      </c>
+      <c r="I107" s="262">
+        <v>2</v>
+      </c>
+      <c r="J107" s="262">
+        <v>1</v>
+      </c>
+      <c r="K107" s="262">
         <v>1</v>
       </c>
       <c r="L107" s="202"/>
@@ -24203,30 +24194,30 @@
       <c r="Q107" s="204"/>
     </row>
     <row r="108" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B108" s="263" t="s">
+      <c r="B108" s="268" t="s">
         <v>121</v>
       </c>
-      <c r="C108" s="263" t="s">
+      <c r="C108" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D108" s="263"/>
-      <c r="E108" s="263"/>
-      <c r="F108" s="263">
-        <v>1</v>
-      </c>
-      <c r="G108" s="263">
-        <v>2</v>
-      </c>
-      <c r="H108" s="263">
-        <v>2</v>
-      </c>
-      <c r="I108" s="263">
-        <v>2</v>
-      </c>
-      <c r="J108" s="263">
-        <v>2</v>
-      </c>
-      <c r="K108" s="263">
+      <c r="D108" s="262"/>
+      <c r="E108" s="262"/>
+      <c r="F108" s="262">
+        <v>1</v>
+      </c>
+      <c r="G108" s="262">
+        <v>2</v>
+      </c>
+      <c r="H108" s="262">
+        <v>2</v>
+      </c>
+      <c r="I108" s="262">
+        <v>2</v>
+      </c>
+      <c r="J108" s="262">
+        <v>2</v>
+      </c>
+      <c r="K108" s="262">
         <v>2</v>
       </c>
       <c r="L108" s="202"/>
@@ -24234,47 +24225,47 @@
       <c r="Q108" s="204"/>
     </row>
     <row r="109" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B109" s="263" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="263" t="s">
+      <c r="B109" s="268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D109" s="263">
-        <v>2</v>
-      </c>
-      <c r="E109" s="263">
-        <v>2</v>
-      </c>
-      <c r="F109" s="263"/>
-      <c r="G109" s="263"/>
-      <c r="H109" s="263"/>
-      <c r="I109" s="263"/>
-      <c r="J109" s="263"/>
-      <c r="K109" s="263"/>
+      <c r="D109" s="262">
+        <v>2</v>
+      </c>
+      <c r="E109" s="262">
+        <v>2</v>
+      </c>
+      <c r="F109" s="262"/>
+      <c r="G109" s="262"/>
+      <c r="H109" s="262"/>
+      <c r="I109" s="262"/>
+      <c r="J109" s="262"/>
+      <c r="K109" s="262"/>
       <c r="L109" s="202"/>
       <c r="P109" s="204"/>
       <c r="Q109" s="204"/>
     </row>
     <row r="110" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B110" s="263" t="s">
+      <c r="B110" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="263" t="s">
+      <c r="C110" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D110" s="263"/>
-      <c r="E110" s="263"/>
-      <c r="F110" s="263">
-        <v>1</v>
-      </c>
-      <c r="G110" s="263"/>
-      <c r="H110" s="263"/>
-      <c r="I110" s="263"/>
-      <c r="J110" s="263">
-        <v>2</v>
-      </c>
-      <c r="K110" s="263">
+      <c r="D110" s="262"/>
+      <c r="E110" s="262"/>
+      <c r="F110" s="262">
+        <v>1</v>
+      </c>
+      <c r="G110" s="262"/>
+      <c r="H110" s="262"/>
+      <c r="I110" s="262"/>
+      <c r="J110" s="262">
+        <v>2</v>
+      </c>
+      <c r="K110" s="262">
         <v>2</v>
       </c>
       <c r="L110" s="202"/>
@@ -24282,30 +24273,30 @@
       <c r="Q110" s="204"/>
     </row>
     <row r="111" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B111" s="263" t="s">
+      <c r="B111" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="263" t="s">
+      <c r="C111" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D111" s="263"/>
-      <c r="E111" s="263">
-        <v>1</v>
-      </c>
-      <c r="F111" s="263">
-        <v>1</v>
-      </c>
-      <c r="G111" s="263"/>
-      <c r="H111" s="263">
-        <v>2</v>
-      </c>
-      <c r="I111" s="263">
-        <v>3</v>
-      </c>
-      <c r="J111" s="263">
-        <v>3</v>
-      </c>
-      <c r="K111" s="263">
+      <c r="D111" s="262"/>
+      <c r="E111" s="262">
+        <v>1</v>
+      </c>
+      <c r="F111" s="262">
+        <v>1</v>
+      </c>
+      <c r="G111" s="262"/>
+      <c r="H111" s="262">
+        <v>2</v>
+      </c>
+      <c r="I111" s="262">
+        <v>3</v>
+      </c>
+      <c r="J111" s="262">
+        <v>3</v>
+      </c>
+      <c r="K111" s="262">
         <v>3</v>
       </c>
       <c r="L111" s="202"/>
@@ -24313,30 +24304,30 @@
       <c r="Q111" s="204"/>
     </row>
     <row r="112" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B112" s="263" t="s">
+      <c r="B112" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="263" t="s">
+      <c r="C112" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D112" s="263"/>
-      <c r="E112" s="263">
-        <v>1</v>
-      </c>
-      <c r="F112" s="263">
-        <v>2</v>
-      </c>
-      <c r="G112" s="263">
+      <c r="D112" s="262"/>
+      <c r="E112" s="262">
+        <v>1</v>
+      </c>
+      <c r="F112" s="262">
+        <v>2</v>
+      </c>
+      <c r="G112" s="262">
         <v>4</v>
       </c>
-      <c r="H112" s="263">
-        <v>3</v>
-      </c>
-      <c r="I112" s="263">
+      <c r="H112" s="262">
+        <v>3</v>
+      </c>
+      <c r="I112" s="262">
         <v>5</v>
       </c>
-      <c r="J112" s="263"/>
-      <c r="K112" s="263">
+      <c r="J112" s="262"/>
+      <c r="K112" s="262">
         <v>6</v>
       </c>
       <c r="L112" s="202"/>
@@ -24344,34 +24335,34 @@
       <c r="Q112" s="204"/>
     </row>
     <row r="113" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B113" s="263" t="s">
+      <c r="B113" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="263" t="s">
+      <c r="C113" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D113" s="263">
-        <v>3</v>
-      </c>
-      <c r="E113" s="263">
-        <v>3</v>
-      </c>
-      <c r="F113" s="263">
-        <v>3</v>
-      </c>
-      <c r="G113" s="263">
-        <v>3</v>
-      </c>
-      <c r="H113" s="263">
-        <v>3</v>
-      </c>
-      <c r="I113" s="263">
-        <v>3</v>
-      </c>
-      <c r="J113" s="263">
-        <v>3</v>
-      </c>
-      <c r="K113" s="263">
+      <c r="D113" s="262">
+        <v>3</v>
+      </c>
+      <c r="E113" s="262">
+        <v>3</v>
+      </c>
+      <c r="F113" s="262">
+        <v>3</v>
+      </c>
+      <c r="G113" s="262">
+        <v>3</v>
+      </c>
+      <c r="H113" s="262">
+        <v>3</v>
+      </c>
+      <c r="I113" s="262">
+        <v>3</v>
+      </c>
+      <c r="J113" s="262">
+        <v>3</v>
+      </c>
+      <c r="K113" s="262">
         <v>3</v>
       </c>
       <c r="L113" s="202"/>
@@ -24379,30 +24370,30 @@
       <c r="Q113" s="204"/>
     </row>
     <row r="114" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B114" s="263" t="s">
+      <c r="B114" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="C114" s="263" t="s">
+      <c r="C114" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D114" s="263">
-        <v>1</v>
-      </c>
-      <c r="E114" s="263">
-        <v>1</v>
-      </c>
-      <c r="F114" s="263">
-        <v>2</v>
-      </c>
-      <c r="G114" s="263"/>
-      <c r="H114" s="263"/>
-      <c r="I114" s="263">
-        <v>2</v>
-      </c>
-      <c r="J114" s="263">
-        <v>2</v>
-      </c>
-      <c r="K114" s="263">
+      <c r="D114" s="262">
+        <v>1</v>
+      </c>
+      <c r="E114" s="262">
+        <v>1</v>
+      </c>
+      <c r="F114" s="262">
+        <v>2</v>
+      </c>
+      <c r="G114" s="262"/>
+      <c r="H114" s="262"/>
+      <c r="I114" s="262">
+        <v>2</v>
+      </c>
+      <c r="J114" s="262">
+        <v>2</v>
+      </c>
+      <c r="K114" s="262">
         <v>2</v>
       </c>
       <c r="L114" s="202"/>
@@ -24410,30 +24401,30 @@
       <c r="Q114" s="204"/>
     </row>
     <row r="115" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B115" s="263" t="s">
+      <c r="B115" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="C115" s="263" t="s">
+      <c r="C115" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="263">
-        <v>1</v>
-      </c>
-      <c r="E115" s="263">
-        <v>1</v>
-      </c>
-      <c r="F115" s="263">
-        <v>1</v>
-      </c>
-      <c r="G115" s="263">
-        <v>1</v>
-      </c>
-      <c r="H115" s="263">
-        <v>1</v>
-      </c>
-      <c r="I115" s="263"/>
-      <c r="J115" s="263"/>
-      <c r="K115" s="263">
+      <c r="D115" s="262">
+        <v>1</v>
+      </c>
+      <c r="E115" s="262">
+        <v>1</v>
+      </c>
+      <c r="F115" s="262">
+        <v>1</v>
+      </c>
+      <c r="G115" s="262">
+        <v>1</v>
+      </c>
+      <c r="H115" s="262">
+        <v>1</v>
+      </c>
+      <c r="I115" s="262"/>
+      <c r="J115" s="262"/>
+      <c r="K115" s="262">
         <v>1</v>
       </c>
       <c r="L115" s="202"/>
@@ -24441,26 +24432,26 @@
       <c r="Q115" s="204"/>
     </row>
     <row r="116" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B116" s="263" t="s">
+      <c r="B116" s="268" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="263" t="s">
+      <c r="C116" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D116" s="263"/>
-      <c r="E116" s="263">
-        <v>1</v>
-      </c>
-      <c r="F116" s="263">
-        <v>3</v>
-      </c>
-      <c r="G116" s="263">
+      <c r="D116" s="262"/>
+      <c r="E116" s="262">
+        <v>1</v>
+      </c>
+      <c r="F116" s="262">
+        <v>3</v>
+      </c>
+      <c r="G116" s="262">
         <v>9</v>
       </c>
-      <c r="H116" s="263"/>
-      <c r="I116" s="263"/>
-      <c r="J116" s="263"/>
-      <c r="K116" s="263">
+      <c r="H116" s="262"/>
+      <c r="I116" s="262"/>
+      <c r="J116" s="262"/>
+      <c r="K116" s="262">
         <v>15</v>
       </c>
       <c r="L116" s="202"/>
@@ -24468,119 +24459,119 @@
       <c r="Q116" s="204"/>
     </row>
     <row r="117" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B117" s="263" t="s">
+      <c r="B117" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="263" t="s">
+      <c r="C117" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D117" s="263">
-        <v>1</v>
-      </c>
-      <c r="E117" s="263">
-        <v>1</v>
-      </c>
-      <c r="F117" s="263">
-        <v>2</v>
-      </c>
-      <c r="G117" s="263">
-        <v>1</v>
-      </c>
-      <c r="H117" s="263">
-        <v>2</v>
-      </c>
-      <c r="I117" s="263">
-        <v>2</v>
-      </c>
-      <c r="J117" s="263"/>
-      <c r="K117" s="263"/>
+      <c r="D117" s="262">
+        <v>1</v>
+      </c>
+      <c r="E117" s="262">
+        <v>1</v>
+      </c>
+      <c r="F117" s="262">
+        <v>2</v>
+      </c>
+      <c r="G117" s="262">
+        <v>1</v>
+      </c>
+      <c r="H117" s="262">
+        <v>2</v>
+      </c>
+      <c r="I117" s="262">
+        <v>2</v>
+      </c>
+      <c r="J117" s="262"/>
+      <c r="K117" s="262"/>
       <c r="L117" s="202"/>
       <c r="P117" s="204"/>
       <c r="Q117" s="204"/>
     </row>
     <row r="118" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B118" s="263" t="s">
+      <c r="B118" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="263" t="s">
+      <c r="C118" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D118" s="263"/>
-      <c r="E118" s="263">
-        <v>1</v>
-      </c>
-      <c r="F118" s="263">
-        <v>1</v>
-      </c>
-      <c r="G118" s="263">
-        <v>1</v>
-      </c>
-      <c r="H118" s="263">
-        <v>1</v>
-      </c>
-      <c r="I118" s="263">
-        <v>2</v>
-      </c>
-      <c r="J118" s="263">
-        <v>2</v>
-      </c>
-      <c r="K118" s="263"/>
+      <c r="D118" s="262"/>
+      <c r="E118" s="262">
+        <v>1</v>
+      </c>
+      <c r="F118" s="262">
+        <v>1</v>
+      </c>
+      <c r="G118" s="262">
+        <v>1</v>
+      </c>
+      <c r="H118" s="262">
+        <v>1</v>
+      </c>
+      <c r="I118" s="262">
+        <v>2</v>
+      </c>
+      <c r="J118" s="262">
+        <v>2</v>
+      </c>
+      <c r="K118" s="262"/>
       <c r="L118" s="202"/>
       <c r="P118" s="204"/>
       <c r="Q118" s="204"/>
     </row>
     <row r="119" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B119" s="263" t="s">
+      <c r="B119" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="263" t="s">
+      <c r="C119" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D119" s="263">
-        <v>1</v>
-      </c>
-      <c r="E119" s="263">
-        <v>1</v>
-      </c>
-      <c r="F119" s="263">
-        <v>2</v>
-      </c>
-      <c r="G119" s="263">
-        <v>2</v>
-      </c>
-      <c r="H119" s="263">
-        <v>2</v>
-      </c>
-      <c r="I119" s="263"/>
-      <c r="J119" s="263"/>
-      <c r="K119" s="263"/>
+      <c r="D119" s="262">
+        <v>1</v>
+      </c>
+      <c r="E119" s="262">
+        <v>1</v>
+      </c>
+      <c r="F119" s="262">
+        <v>2</v>
+      </c>
+      <c r="G119" s="262">
+        <v>2</v>
+      </c>
+      <c r="H119" s="262">
+        <v>2</v>
+      </c>
+      <c r="I119" s="262"/>
+      <c r="J119" s="262"/>
+      <c r="K119" s="262"/>
       <c r="L119" s="202"/>
       <c r="P119" s="204"/>
       <c r="Q119" s="204"/>
     </row>
     <row r="120" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B120" s="263" t="s">
-        <v>163</v>
-      </c>
-      <c r="C120" s="263" t="s">
+      <c r="B120" s="268" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D120" s="263"/>
-      <c r="E120" s="263">
-        <v>2</v>
-      </c>
-      <c r="F120" s="263">
-        <v>3</v>
-      </c>
-      <c r="G120" s="263">
-        <v>1</v>
-      </c>
-      <c r="H120" s="263">
-        <v>1</v>
-      </c>
-      <c r="I120" s="263"/>
-      <c r="J120" s="263"/>
-      <c r="K120" s="263">
+      <c r="D120" s="262"/>
+      <c r="E120" s="262">
+        <v>2</v>
+      </c>
+      <c r="F120" s="262">
+        <v>3</v>
+      </c>
+      <c r="G120" s="262">
+        <v>1</v>
+      </c>
+      <c r="H120" s="262">
+        <v>1</v>
+      </c>
+      <c r="I120" s="262"/>
+      <c r="J120" s="262"/>
+      <c r="K120" s="262">
         <v>3</v>
       </c>
       <c r="L120" s="202"/>
@@ -24588,59 +24579,59 @@
       <c r="Q120" s="204"/>
     </row>
     <row r="121" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B121" s="263" t="s">
+      <c r="B121" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="C121" s="263" t="s">
+      <c r="C121" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D121" s="263">
-        <v>2</v>
-      </c>
-      <c r="E121" s="263">
+      <c r="D121" s="262">
+        <v>2</v>
+      </c>
+      <c r="E121" s="262">
         <v>7</v>
       </c>
-      <c r="F121" s="263">
+      <c r="F121" s="262">
         <v>12</v>
       </c>
-      <c r="G121" s="263">
+      <c r="G121" s="262">
         <v>17</v>
       </c>
-      <c r="H121" s="263">
+      <c r="H121" s="262">
         <v>22</v>
       </c>
-      <c r="I121" s="263"/>
-      <c r="J121" s="263"/>
-      <c r="K121" s="263"/>
+      <c r="I121" s="262"/>
+      <c r="J121" s="262"/>
+      <c r="K121" s="262"/>
       <c r="L121" s="202"/>
       <c r="P121" s="204"/>
       <c r="Q121" s="204"/>
     </row>
     <row r="122" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B122" s="263" t="s">
+      <c r="B122" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="263" t="s">
+      <c r="C122" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="263">
-        <v>2</v>
-      </c>
-      <c r="E122" s="263"/>
-      <c r="F122" s="263"/>
-      <c r="G122" s="263">
-        <v>2</v>
-      </c>
-      <c r="H122" s="263">
-        <v>1</v>
-      </c>
-      <c r="I122" s="263">
-        <v>1</v>
-      </c>
-      <c r="J122" s="263">
-        <v>2</v>
-      </c>
-      <c r="K122" s="263">
+      <c r="D122" s="262">
+        <v>2</v>
+      </c>
+      <c r="E122" s="262"/>
+      <c r="F122" s="262"/>
+      <c r="G122" s="262">
+        <v>2</v>
+      </c>
+      <c r="H122" s="262">
+        <v>1</v>
+      </c>
+      <c r="I122" s="262">
+        <v>1</v>
+      </c>
+      <c r="J122" s="262">
+        <v>2</v>
+      </c>
+      <c r="K122" s="262">
         <v>2</v>
       </c>
       <c r="L122" s="202"/>
@@ -24648,53 +24639,53 @@
       <c r="Q122" s="204"/>
     </row>
     <row r="123" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B123" s="263" t="s">
+      <c r="B123" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="C123" s="263" t="s">
+      <c r="C123" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D123" s="263"/>
-      <c r="E123" s="263">
-        <v>2</v>
-      </c>
-      <c r="F123" s="263">
-        <v>2</v>
-      </c>
-      <c r="G123" s="263"/>
-      <c r="H123" s="263"/>
-      <c r="I123" s="263"/>
-      <c r="J123" s="263"/>
-      <c r="K123" s="263"/>
+      <c r="D123" s="262"/>
+      <c r="E123" s="262">
+        <v>2</v>
+      </c>
+      <c r="F123" s="262">
+        <v>2</v>
+      </c>
+      <c r="G123" s="262"/>
+      <c r="H123" s="262"/>
+      <c r="I123" s="262"/>
+      <c r="J123" s="262"/>
+      <c r="K123" s="262"/>
       <c r="L123" s="202"/>
       <c r="P123" s="204"/>
       <c r="Q123" s="204"/>
     </row>
     <row r="124" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B124" s="263" t="s">
+      <c r="B124" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="C124" s="263" t="s">
+      <c r="C124" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D124" s="263">
-        <v>3</v>
-      </c>
-      <c r="E124" s="263">
-        <v>3</v>
-      </c>
-      <c r="F124" s="263">
-        <v>3</v>
-      </c>
-      <c r="G124" s="263">
-        <v>3</v>
-      </c>
-      <c r="H124" s="263">
-        <v>3</v>
-      </c>
-      <c r="I124" s="263"/>
-      <c r="J124" s="263"/>
-      <c r="K124" s="263">
+      <c r="D124" s="262">
+        <v>3</v>
+      </c>
+      <c r="E124" s="262">
+        <v>3</v>
+      </c>
+      <c r="F124" s="262">
+        <v>3</v>
+      </c>
+      <c r="G124" s="262">
+        <v>3</v>
+      </c>
+      <c r="H124" s="262">
+        <v>3</v>
+      </c>
+      <c r="I124" s="262"/>
+      <c r="J124" s="262"/>
+      <c r="K124" s="262">
         <v>3</v>
       </c>
       <c r="L124" s="202"/>
@@ -24702,59 +24693,59 @@
       <c r="Q124" s="204"/>
     </row>
     <row r="125" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B125" s="263" t="s">
+      <c r="B125" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="C125" s="263" t="s">
+      <c r="C125" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D125" s="263"/>
-      <c r="E125" s="263"/>
-      <c r="F125" s="263"/>
-      <c r="G125" s="263">
-        <v>1</v>
-      </c>
-      <c r="H125" s="263">
-        <v>2</v>
-      </c>
-      <c r="I125" s="263">
-        <v>2</v>
-      </c>
-      <c r="J125" s="263"/>
-      <c r="K125" s="263"/>
+      <c r="D125" s="262"/>
+      <c r="E125" s="262"/>
+      <c r="F125" s="262"/>
+      <c r="G125" s="262">
+        <v>1</v>
+      </c>
+      <c r="H125" s="262">
+        <v>2</v>
+      </c>
+      <c r="I125" s="262">
+        <v>2</v>
+      </c>
+      <c r="J125" s="262"/>
+      <c r="K125" s="262"/>
       <c r="L125" s="202"/>
       <c r="P125" s="204"/>
       <c r="Q125" s="204"/>
     </row>
     <row r="126" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B126" s="263" t="s">
+      <c r="B126" s="268" t="s">
         <v>25</v>
       </c>
-      <c r="C126" s="263" t="s">
+      <c r="C126" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D126" s="263">
-        <v>3</v>
-      </c>
-      <c r="E126" s="263">
-        <v>3</v>
-      </c>
-      <c r="F126" s="263">
-        <v>3</v>
-      </c>
-      <c r="G126" s="263">
-        <v>3</v>
-      </c>
-      <c r="H126" s="263">
-        <v>3</v>
-      </c>
-      <c r="I126" s="263">
-        <v>3</v>
-      </c>
-      <c r="J126" s="263">
-        <v>3</v>
-      </c>
-      <c r="K126" s="263">
+      <c r="D126" s="262">
+        <v>3</v>
+      </c>
+      <c r="E126" s="262">
+        <v>3</v>
+      </c>
+      <c r="F126" s="262">
+        <v>3</v>
+      </c>
+      <c r="G126" s="262">
+        <v>3</v>
+      </c>
+      <c r="H126" s="262">
+        <v>3</v>
+      </c>
+      <c r="I126" s="262">
+        <v>3</v>
+      </c>
+      <c r="J126" s="262">
+        <v>3</v>
+      </c>
+      <c r="K126" s="262">
         <v>3</v>
       </c>
       <c r="L126" s="202"/>
@@ -24762,28 +24753,28 @@
       <c r="Q126" s="204"/>
     </row>
     <row r="127" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B127" s="263" t="s">
+      <c r="B127" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="263" t="s">
+      <c r="C127" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D127" s="263">
-        <v>2</v>
-      </c>
-      <c r="E127" s="263"/>
-      <c r="F127" s="263">
-        <v>2</v>
-      </c>
-      <c r="G127" s="263"/>
-      <c r="H127" s="263">
-        <v>2</v>
-      </c>
-      <c r="I127" s="263"/>
-      <c r="J127" s="263">
-        <v>1</v>
-      </c>
-      <c r="K127" s="263">
+      <c r="D127" s="262">
+        <v>2</v>
+      </c>
+      <c r="E127" s="262"/>
+      <c r="F127" s="262">
+        <v>2</v>
+      </c>
+      <c r="G127" s="262"/>
+      <c r="H127" s="262">
+        <v>2</v>
+      </c>
+      <c r="I127" s="262"/>
+      <c r="J127" s="262">
+        <v>1</v>
+      </c>
+      <c r="K127" s="262">
         <v>1</v>
       </c>
       <c r="L127" s="202"/>
@@ -24791,57 +24782,57 @@
       <c r="Q127" s="204"/>
     </row>
     <row r="128" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B128" s="263" t="s">
+      <c r="B128" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="C128" s="263" t="s">
+      <c r="C128" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D128" s="263">
-        <v>2</v>
-      </c>
-      <c r="E128" s="263">
-        <v>2</v>
-      </c>
-      <c r="F128" s="263"/>
-      <c r="G128" s="263">
-        <v>1</v>
-      </c>
-      <c r="H128" s="263">
-        <v>1</v>
-      </c>
-      <c r="I128" s="263">
-        <v>1</v>
-      </c>
-      <c r="J128" s="263">
-        <v>1</v>
-      </c>
-      <c r="K128" s="263"/>
+      <c r="D128" s="262">
+        <v>2</v>
+      </c>
+      <c r="E128" s="262">
+        <v>2</v>
+      </c>
+      <c r="F128" s="262"/>
+      <c r="G128" s="262">
+        <v>1</v>
+      </c>
+      <c r="H128" s="262">
+        <v>1</v>
+      </c>
+      <c r="I128" s="262">
+        <v>1</v>
+      </c>
+      <c r="J128" s="262">
+        <v>1</v>
+      </c>
+      <c r="K128" s="262"/>
       <c r="L128" s="202"/>
       <c r="P128" s="204"/>
       <c r="Q128" s="204"/>
     </row>
     <row r="129" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B129" s="263" t="s">
+      <c r="B129" s="268" t="s">
         <v>30</v>
       </c>
-      <c r="C129" s="263" t="s">
+      <c r="C129" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D129" s="263"/>
-      <c r="E129" s="263"/>
-      <c r="F129" s="263"/>
-      <c r="G129" s="263"/>
-      <c r="H129" s="263">
-        <v>3</v>
-      </c>
-      <c r="I129" s="263">
-        <v>3</v>
-      </c>
-      <c r="J129" s="263">
-        <v>3</v>
-      </c>
-      <c r="K129" s="263">
+      <c r="D129" s="262"/>
+      <c r="E129" s="262"/>
+      <c r="F129" s="262"/>
+      <c r="G129" s="262"/>
+      <c r="H129" s="262">
+        <v>3</v>
+      </c>
+      <c r="I129" s="262">
+        <v>3</v>
+      </c>
+      <c r="J129" s="262">
+        <v>3</v>
+      </c>
+      <c r="K129" s="262">
         <v>3</v>
       </c>
       <c r="L129" s="202"/>
@@ -24849,32 +24840,32 @@
       <c r="Q129" s="204"/>
     </row>
     <row r="130" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B130" s="263" t="s">
+      <c r="B130" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="263" t="s">
+      <c r="C130" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D130" s="263"/>
-      <c r="E130" s="263">
-        <v>2</v>
-      </c>
-      <c r="F130" s="263">
-        <v>2</v>
-      </c>
-      <c r="G130" s="263">
-        <v>1</v>
-      </c>
-      <c r="H130" s="263">
-        <v>1</v>
-      </c>
-      <c r="I130" s="263">
-        <v>2</v>
-      </c>
-      <c r="J130" s="263">
-        <v>2</v>
-      </c>
-      <c r="K130" s="263">
+      <c r="D130" s="262"/>
+      <c r="E130" s="262">
+        <v>2</v>
+      </c>
+      <c r="F130" s="262">
+        <v>2</v>
+      </c>
+      <c r="G130" s="262">
+        <v>1</v>
+      </c>
+      <c r="H130" s="262">
+        <v>1</v>
+      </c>
+      <c r="I130" s="262">
+        <v>2</v>
+      </c>
+      <c r="J130" s="262">
+        <v>2</v>
+      </c>
+      <c r="K130" s="262">
         <v>3</v>
       </c>
       <c r="L130" s="202"/>
@@ -24882,28 +24873,28 @@
       <c r="Q130" s="204"/>
     </row>
     <row r="131" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B131" s="263" t="s">
+      <c r="B131" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="C131" s="263" t="s">
+      <c r="C131" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D131" s="263"/>
-      <c r="E131" s="263">
-        <v>1</v>
-      </c>
-      <c r="F131" s="263">
-        <v>1</v>
-      </c>
-      <c r="G131" s="263"/>
-      <c r="H131" s="263"/>
-      <c r="I131" s="263">
-        <v>1</v>
-      </c>
-      <c r="J131" s="263">
-        <v>1</v>
-      </c>
-      <c r="K131" s="263">
+      <c r="D131" s="262"/>
+      <c r="E131" s="262">
+        <v>1</v>
+      </c>
+      <c r="F131" s="262">
+        <v>1</v>
+      </c>
+      <c r="G131" s="262"/>
+      <c r="H131" s="262"/>
+      <c r="I131" s="262">
+        <v>1</v>
+      </c>
+      <c r="J131" s="262">
+        <v>1</v>
+      </c>
+      <c r="K131" s="262">
         <v>2</v>
       </c>
       <c r="L131" s="202"/>
@@ -24911,28 +24902,28 @@
       <c r="Q131" s="204"/>
     </row>
     <row r="132" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B132" s="263" t="s">
+      <c r="B132" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="C132" s="263" t="s">
+      <c r="C132" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D132" s="263">
-        <v>2</v>
-      </c>
-      <c r="E132" s="263"/>
-      <c r="F132" s="263">
-        <v>2</v>
-      </c>
-      <c r="G132" s="263"/>
-      <c r="H132" s="263">
-        <v>1</v>
-      </c>
-      <c r="I132" s="263"/>
-      <c r="J132" s="263">
-        <v>1</v>
-      </c>
-      <c r="K132" s="263">
+      <c r="D132" s="262">
+        <v>2</v>
+      </c>
+      <c r="E132" s="262"/>
+      <c r="F132" s="262">
+        <v>2</v>
+      </c>
+      <c r="G132" s="262"/>
+      <c r="H132" s="262">
+        <v>1</v>
+      </c>
+      <c r="I132" s="262"/>
+      <c r="J132" s="262">
+        <v>1</v>
+      </c>
+      <c r="K132" s="262">
         <v>2</v>
       </c>
       <c r="L132" s="202"/>
@@ -24940,28 +24931,28 @@
       <c r="Q132" s="204"/>
     </row>
     <row r="133" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B133" s="263" t="s">
+      <c r="B133" s="268" t="s">
         <v>44</v>
       </c>
-      <c r="C133" s="263" t="s">
+      <c r="C133" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D133" s="263"/>
-      <c r="E133" s="263"/>
-      <c r="F133" s="263"/>
-      <c r="G133" s="263">
-        <v>1</v>
-      </c>
-      <c r="H133" s="263">
-        <v>1</v>
-      </c>
-      <c r="I133" s="263">
-        <v>1</v>
-      </c>
-      <c r="J133" s="263">
-        <v>1</v>
-      </c>
-      <c r="K133" s="263">
+      <c r="D133" s="262"/>
+      <c r="E133" s="262"/>
+      <c r="F133" s="262"/>
+      <c r="G133" s="262">
+        <v>1</v>
+      </c>
+      <c r="H133" s="262">
+        <v>1</v>
+      </c>
+      <c r="I133" s="262">
+        <v>1</v>
+      </c>
+      <c r="J133" s="262">
+        <v>1</v>
+      </c>
+      <c r="K133" s="262">
         <v>2</v>
       </c>
       <c r="L133" s="202"/>
@@ -24969,28 +24960,28 @@
       <c r="Q133" s="204"/>
     </row>
     <row r="134" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B134" s="263" t="s">
+      <c r="B134" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="C134" s="263" t="s">
+      <c r="C134" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D134" s="263"/>
-      <c r="E134" s="263"/>
-      <c r="F134" s="263"/>
-      <c r="G134" s="263">
-        <v>2</v>
-      </c>
-      <c r="H134" s="263">
-        <v>2</v>
-      </c>
-      <c r="I134" s="263">
-        <v>2</v>
-      </c>
-      <c r="J134" s="263">
-        <v>1</v>
-      </c>
-      <c r="K134" s="263">
+      <c r="D134" s="262"/>
+      <c r="E134" s="262"/>
+      <c r="F134" s="262"/>
+      <c r="G134" s="262">
+        <v>2</v>
+      </c>
+      <c r="H134" s="262">
+        <v>2</v>
+      </c>
+      <c r="I134" s="262">
+        <v>2</v>
+      </c>
+      <c r="J134" s="262">
+        <v>1</v>
+      </c>
+      <c r="K134" s="262">
         <v>1</v>
       </c>
       <c r="L134" s="202"/>
@@ -24998,57 +24989,57 @@
       <c r="Q134" s="204"/>
     </row>
     <row r="135" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B135" s="263" t="s">
+      <c r="B135" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="C135" s="263" t="s">
+      <c r="C135" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D135" s="263">
-        <v>2</v>
-      </c>
-      <c r="E135" s="263">
-        <v>2</v>
-      </c>
-      <c r="F135" s="263">
-        <v>3</v>
-      </c>
-      <c r="G135" s="263"/>
-      <c r="H135" s="263"/>
-      <c r="I135" s="263">
-        <v>2</v>
-      </c>
-      <c r="J135" s="263"/>
-      <c r="K135" s="263"/>
+      <c r="D135" s="262">
+        <v>2</v>
+      </c>
+      <c r="E135" s="262">
+        <v>2</v>
+      </c>
+      <c r="F135" s="262">
+        <v>3</v>
+      </c>
+      <c r="G135" s="262"/>
+      <c r="H135" s="262"/>
+      <c r="I135" s="262">
+        <v>2</v>
+      </c>
+      <c r="J135" s="262"/>
+      <c r="K135" s="262"/>
       <c r="L135" s="202"/>
       <c r="P135" s="204"/>
       <c r="Q135" s="204"/>
     </row>
     <row r="136" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B136" s="263" t="s">
+      <c r="B136" s="268" t="s">
         <v>47</v>
       </c>
-      <c r="C136" s="263" t="s">
+      <c r="C136" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D136" s="263">
-        <v>1</v>
-      </c>
-      <c r="E136" s="263">
-        <v>1</v>
-      </c>
-      <c r="F136" s="263">
-        <v>2</v>
-      </c>
-      <c r="G136" s="263"/>
-      <c r="H136" s="263"/>
-      <c r="I136" s="263">
-        <v>2</v>
-      </c>
-      <c r="J136" s="263">
-        <v>2</v>
-      </c>
-      <c r="K136" s="263"/>
+      <c r="D136" s="262">
+        <v>1</v>
+      </c>
+      <c r="E136" s="262">
+        <v>1</v>
+      </c>
+      <c r="F136" s="262">
+        <v>2</v>
+      </c>
+      <c r="G136" s="262"/>
+      <c r="H136" s="262"/>
+      <c r="I136" s="262">
+        <v>2</v>
+      </c>
+      <c r="J136" s="262">
+        <v>2</v>
+      </c>
+      <c r="K136" s="262"/>
       <c r="L136" s="202"/>
       <c r="P136" s="204"/>
       <c r="Q136" s="204"/>
@@ -25163,7 +25154,7 @@
       <c r="T142" s="14"/>
     </row>
     <row r="143" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B143" s="214" t="s">
+      <c r="B143" s="269" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="214" t="s">
@@ -25187,7 +25178,7 @@
       <c r="T143" s="14"/>
     </row>
     <row r="144" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B144" s="214" t="s">
+      <c r="B144" s="269" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="214" t="s">
@@ -25221,7 +25212,7 @@
       <c r="T144" s="14"/>
     </row>
     <row r="145" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B145" s="214" t="s">
+      <c r="B145" s="269" t="s">
         <v>24</v>
       </c>
       <c r="C145" s="214" t="s">
@@ -25259,7 +25250,7 @@
       <c r="T145" s="14"/>
     </row>
     <row r="146" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B146" s="214" t="s">
+      <c r="B146" s="269" t="s">
         <v>37</v>
       </c>
       <c r="C146" s="214" t="s">
@@ -25284,7 +25275,7 @@
       <c r="T146" s="14"/>
     </row>
     <row r="147" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B147" s="214" t="s">
+      <c r="B147" s="269" t="s">
         <v>42</v>
       </c>
       <c r="C147" s="214" t="s">
@@ -25317,8 +25308,8 @@
       <c r="T147" s="14"/>
     </row>
     <row r="148" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B148" s="214" t="s">
-        <v>165</v>
+      <c r="B148" s="269" t="s">
+        <v>7</v>
       </c>
       <c r="C148" s="214" t="s">
         <v>51</v>
@@ -25352,8 +25343,8 @@
       <c r="T148" s="14"/>
     </row>
     <row r="149" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B149" s="214" t="s">
-        <v>141</v>
+      <c r="B149" s="269" t="s">
+        <v>8</v>
       </c>
       <c r="C149" s="214" t="s">
         <v>51</v>
@@ -25387,7 +25378,7 @@
       <c r="T149" s="14"/>
     </row>
     <row r="150" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B150" s="214" t="s">
+      <c r="B150" s="269" t="s">
         <v>12</v>
       </c>
       <c r="C150" s="214" t="s">
@@ -25422,7 +25413,7 @@
       <c r="T150" s="14"/>
     </row>
     <row r="151" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B151" s="214" t="s">
+      <c r="B151" s="269" t="s">
         <v>14</v>
       </c>
       <c r="C151" s="214" t="s">
@@ -25461,20 +25452,20 @@
       <c r="T151" s="14"/>
     </row>
     <row r="152" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B152" s="214" t="s">
+      <c r="B152" s="269" t="s">
         <v>15</v>
       </c>
       <c r="C152" s="214" t="s">
         <v>51</v>
       </c>
       <c r="D152" s="214" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E152" s="214">
         <v>1</v>
       </c>
       <c r="F152" s="214" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G152" s="214">
         <v>2</v>
@@ -25494,7 +25485,7 @@
       <c r="T152" s="14"/>
     </row>
     <row r="153" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B153" s="214" t="s">
+      <c r="B153" s="269" t="s">
         <v>121</v>
       </c>
       <c r="C153" s="214" t="s">
@@ -25529,8 +25520,8 @@
       <c r="T153" s="14"/>
     </row>
     <row r="154" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B154" s="214" t="s">
-        <v>150</v>
+      <c r="B154" s="269" t="s">
+        <v>18</v>
       </c>
       <c r="C154" s="214" t="s">
         <v>51</v>
@@ -25560,7 +25551,7 @@
       <c r="T154" s="14"/>
     </row>
     <row r="155" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B155" s="214" t="s">
+      <c r="B155" s="269" t="s">
         <v>19</v>
       </c>
       <c r="C155" s="214" t="s">
@@ -25589,7 +25580,7 @@
       <c r="T155" s="14"/>
     </row>
     <row r="156" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B156" s="205" t="s">
+      <c r="B156" s="270" t="s">
         <v>26</v>
       </c>
       <c r="C156" s="205" t="s">
@@ -25622,7 +25613,7 @@
       <c r="T156" s="14"/>
     </row>
     <row r="157" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B157" s="205" t="s">
+      <c r="B157" s="270" t="s">
         <v>28</v>
       </c>
       <c r="C157" s="205" t="s">
@@ -25657,7 +25648,7 @@
       <c r="T157" s="14"/>
     </row>
     <row r="158" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B158" s="205" t="s">
+      <c r="B158" s="270" t="s">
         <v>32</v>
       </c>
       <c r="C158" s="205" t="s">
@@ -25688,7 +25679,7 @@
       <c r="T158" s="14"/>
     </row>
     <row r="159" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B159" s="205" t="s">
+      <c r="B159" s="270" t="s">
         <v>36</v>
       </c>
       <c r="C159" s="205" t="s">
@@ -25715,7 +25706,7 @@
       <c r="T159" s="14"/>
     </row>
     <row r="160" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B160" s="205" t="s">
+      <c r="B160" s="270" t="s">
         <v>38</v>
       </c>
       <c r="C160" s="205" t="s">
@@ -25746,7 +25737,7 @@
       <c r="T160" s="14"/>
     </row>
     <row r="161" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B161" s="205" t="s">
+      <c r="B161" s="270" t="s">
         <v>40</v>
       </c>
       <c r="C161" s="205" t="s">
@@ -25785,7 +25776,7 @@
       <c r="T161" s="14"/>
     </row>
     <row r="162" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B162" s="205" t="s">
+      <c r="B162" s="270" t="s">
         <v>41</v>
       </c>
       <c r="C162" s="205" t="s">
@@ -25818,7 +25809,7 @@
       <c r="T162" s="14"/>
     </row>
     <row r="163" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B163" s="205" t="s">
+      <c r="B163" s="270" t="s">
         <v>43</v>
       </c>
       <c r="C163" s="205" t="s">
@@ -25849,7 +25840,7 @@
       <c r="T163" s="14"/>
     </row>
     <row r="164" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B164" s="205" t="s">
+      <c r="B164" s="270" t="s">
         <v>11</v>
       </c>
       <c r="C164" s="205" t="s">
@@ -25884,8 +25875,8 @@
       <c r="T164" s="14"/>
     </row>
     <row r="165" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B165" s="205" t="s">
-        <v>167</v>
+      <c r="B165" s="270" t="s">
+        <v>6</v>
       </c>
       <c r="C165" s="205" t="s">
         <v>50</v>
@@ -25923,7 +25914,7 @@
       <c r="T165" s="14"/>
     </row>
     <row r="166" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B166" s="205" t="s">
+      <c r="B166" s="270" t="s">
         <v>13</v>
       </c>
       <c r="C166" s="205" t="s">
@@ -25956,8 +25947,8 @@
       <c r="T166" s="14"/>
     </row>
     <row r="167" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B167" s="205" t="s">
-        <v>163</v>
+      <c r="B167" s="270" t="s">
+        <v>16</v>
       </c>
       <c r="C167" s="205" t="s">
         <v>50</v>
@@ -25995,7 +25986,7 @@
       <c r="T167" s="14"/>
     </row>
     <row r="168" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B168" s="205" t="s">
+      <c r="B168" s="270" t="s">
         <v>17</v>
       </c>
       <c r="C168" s="205" t="s">
@@ -26028,7 +26019,7 @@
       <c r="T168" s="14"/>
     </row>
     <row r="169" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B169" s="205" t="s">
+      <c r="B169" s="270" t="s">
         <v>120</v>
       </c>
       <c r="C169" s="205" t="s">
@@ -26061,7 +26052,7 @@
       <c r="T169" s="14"/>
     </row>
     <row r="170" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B170" s="205" t="s">
+      <c r="B170" s="270" t="s">
         <v>22</v>
       </c>
       <c r="C170" s="205" t="s">
@@ -26100,7 +26091,7 @@
       <c r="T170" s="14"/>
     </row>
     <row r="171" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B171" s="205" t="s">
+      <c r="B171" s="270" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="205" t="s">
@@ -26125,7 +26116,7 @@
       <c r="T171" s="14"/>
     </row>
     <row r="172" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B172" s="205" t="s">
+      <c r="B172" s="270" t="s">
         <v>25</v>
       </c>
       <c r="C172" s="205" t="s">
@@ -26164,7 +26155,7 @@
       <c r="T172" s="14"/>
     </row>
     <row r="173" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B173" s="205" t="s">
+      <c r="B173" s="270" t="s">
         <v>27</v>
       </c>
       <c r="C173" s="205" t="s">
@@ -26203,7 +26194,7 @@
       <c r="T173" s="14"/>
     </row>
     <row r="174" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B174" s="205" t="s">
+      <c r="B174" s="270" t="s">
         <v>29</v>
       </c>
       <c r="C174" s="205" t="s">
@@ -26234,29 +26225,29 @@
       <c r="T174" s="14"/>
     </row>
     <row r="175" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B175" s="229" t="s">
+      <c r="B175" s="272" t="s">
         <v>30</v>
       </c>
-      <c r="C175" s="230" t="s">
+      <c r="C175" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="D175" s="230">
-        <v>1</v>
-      </c>
-      <c r="E175" s="230">
-        <v>1</v>
-      </c>
-      <c r="F175" s="230">
-        <v>2</v>
-      </c>
-      <c r="G175" s="230">
-        <v>2</v>
-      </c>
-      <c r="H175" s="230">
-        <v>3</v>
-      </c>
-      <c r="I175" s="230"/>
-      <c r="J175" s="231"/>
+      <c r="D175" s="229">
+        <v>1</v>
+      </c>
+      <c r="E175" s="229">
+        <v>1</v>
+      </c>
+      <c r="F175" s="229">
+        <v>2</v>
+      </c>
+      <c r="G175" s="229">
+        <v>2</v>
+      </c>
+      <c r="H175" s="229">
+        <v>3</v>
+      </c>
+      <c r="I175" s="229"/>
+      <c r="J175" s="230"/>
       <c r="K175" s="205"/>
       <c r="L175" s="228"/>
       <c r="O175" s="204"/>
@@ -26267,28 +26258,28 @@
       <c r="T175" s="14"/>
     </row>
     <row r="176" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B176" s="205" t="s">
+      <c r="B176" s="270" t="s">
         <v>34</v>
       </c>
-      <c r="C176" s="232" t="s">
+      <c r="C176" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="D176" s="232">
-        <v>3</v>
-      </c>
-      <c r="E176" s="232">
-        <v>3</v>
-      </c>
-      <c r="F176" s="232">
-        <v>3</v>
-      </c>
-      <c r="G176" s="232">
-        <v>3</v>
-      </c>
-      <c r="H176" s="232">
-        <v>3</v>
-      </c>
-      <c r="I176" s="232">
+      <c r="D176" s="231">
+        <v>3</v>
+      </c>
+      <c r="E176" s="231">
+        <v>3</v>
+      </c>
+      <c r="F176" s="231">
+        <v>3</v>
+      </c>
+      <c r="G176" s="231">
+        <v>3</v>
+      </c>
+      <c r="H176" s="231">
+        <v>3</v>
+      </c>
+      <c r="I176" s="231">
         <v>3</v>
       </c>
       <c r="J176" s="205">
@@ -26306,7 +26297,7 @@
       <c r="T176" s="14"/>
     </row>
     <row r="177" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B177" s="205" t="s">
+      <c r="B177" s="270" t="s">
         <v>44</v>
       </c>
       <c r="C177" s="205" t="s">
@@ -26345,7 +26336,7 @@
       <c r="T177" s="14"/>
     </row>
     <row r="178" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B178" s="205" t="s">
+      <c r="B178" s="270" t="s">
         <v>45</v>
       </c>
       <c r="C178" s="205" t="s">
@@ -26378,7 +26369,7 @@
       <c r="T178" s="14"/>
     </row>
     <row r="179" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B179" s="205" t="s">
+      <c r="B179" s="270" t="s">
         <v>46</v>
       </c>
       <c r="C179" s="205" t="s">
@@ -26415,7 +26406,7 @@
       <c r="T179" s="14"/>
     </row>
     <row r="180" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B180" s="205" t="s">
+      <c r="B180" s="270" t="s">
         <v>47</v>
       </c>
       <c r="C180" s="205" t="s">
@@ -26526,18 +26517,18 @@
       <c r="T184" s="14"/>
     </row>
     <row r="185" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B185" s="233" t="s">
+      <c r="B185" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="C185" s="234"/>
-      <c r="D185" s="234"/>
-      <c r="E185" s="234"/>
-      <c r="F185" s="234"/>
-      <c r="G185" s="234"/>
-      <c r="H185" s="234"/>
-      <c r="I185" s="234"/>
-      <c r="J185" s="234"/>
-      <c r="K185" s="234"/>
+      <c r="C185" s="233"/>
+      <c r="D185" s="233"/>
+      <c r="E185" s="233"/>
+      <c r="F185" s="233"/>
+      <c r="G185" s="233"/>
+      <c r="H185" s="233"/>
+      <c r="I185" s="233"/>
+      <c r="J185" s="233"/>
+      <c r="K185" s="233"/>
       <c r="O185" s="204"/>
       <c r="P185" s="204"/>
       <c r="Q185" s="204"/>
@@ -26546,34 +26537,34 @@
       <c r="T185" s="14"/>
     </row>
     <row r="186" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B186" s="262" t="s">
+      <c r="B186" s="261" t="s">
         <v>122</v>
       </c>
-      <c r="C186" s="262" t="s">
+      <c r="C186" s="261" t="s">
         <v>123</v>
       </c>
-      <c r="D186" s="262" t="s">
+      <c r="D186" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="E186" s="262" t="s">
+      <c r="E186" s="261" t="s">
         <v>66</v>
       </c>
-      <c r="F186" s="262" t="s">
+      <c r="F186" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="G186" s="262" t="s">
+      <c r="G186" s="261" t="s">
         <v>68</v>
       </c>
-      <c r="H186" s="262" t="s">
+      <c r="H186" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="I186" s="262" t="s">
+      <c r="I186" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="J186" s="262" t="s">
+      <c r="J186" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="K186" s="262" t="s">
+      <c r="K186" s="261" t="s">
         <v>74</v>
       </c>
       <c r="L186" s="201" t="s">
@@ -26587,32 +26578,32 @@
       <c r="T186" s="14"/>
     </row>
     <row r="187" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B187" s="263" t="s">
+      <c r="B187" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="C187" s="263" t="s">
+      <c r="C187" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D187" s="263">
-        <v>1</v>
-      </c>
-      <c r="E187" s="263">
-        <v>1</v>
-      </c>
-      <c r="F187" s="263">
-        <v>1</v>
-      </c>
-      <c r="G187" s="263"/>
-      <c r="H187" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I187" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J187" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K187" s="263" t="s">
+      <c r="D187" s="262">
+        <v>1</v>
+      </c>
+      <c r="E187" s="262">
+        <v>1</v>
+      </c>
+      <c r="F187" s="262">
+        <v>1</v>
+      </c>
+      <c r="G187" s="262"/>
+      <c r="H187" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I187" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J187" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K187" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L187" s="202"/>
@@ -26624,34 +26615,34 @@
       <c r="T187" s="14"/>
     </row>
     <row r="188" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B188" s="263" t="s">
+      <c r="B188" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="C188" s="263" t="s">
+      <c r="C188" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D188" s="263">
-        <v>2</v>
-      </c>
-      <c r="E188" s="263">
-        <v>1</v>
-      </c>
-      <c r="F188" s="263">
-        <v>1</v>
-      </c>
-      <c r="G188" s="263">
-        <v>1</v>
-      </c>
-      <c r="H188" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I188" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J188" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K188" s="263" t="s">
+      <c r="D188" s="262">
+        <v>2</v>
+      </c>
+      <c r="E188" s="262">
+        <v>1</v>
+      </c>
+      <c r="F188" s="262">
+        <v>1</v>
+      </c>
+      <c r="G188" s="262">
+        <v>1</v>
+      </c>
+      <c r="H188" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I188" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J188" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K188" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L188" s="202"/>
@@ -26663,28 +26654,28 @@
       <c r="T188" s="14"/>
     </row>
     <row r="189" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B189" s="263" t="s">
+      <c r="B189" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="C189" s="263" t="s">
+      <c r="C189" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D189" s="263">
-        <v>1</v>
-      </c>
-      <c r="E189" s="263"/>
-      <c r="F189" s="263"/>
-      <c r="G189" s="263"/>
-      <c r="H189" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I189" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J189" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K189" s="263" t="s">
+      <c r="D189" s="262">
+        <v>1</v>
+      </c>
+      <c r="E189" s="262"/>
+      <c r="F189" s="262"/>
+      <c r="G189" s="262"/>
+      <c r="H189" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I189" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J189" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K189" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L189" s="202"/>
@@ -26696,28 +26687,28 @@
       <c r="T189" s="14"/>
     </row>
     <row r="190" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B190" s="263" t="s">
+      <c r="B190" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="C190" s="263" t="s">
+      <c r="C190" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="D190" s="263"/>
-      <c r="E190" s="263">
-        <v>3</v>
-      </c>
-      <c r="F190" s="263"/>
-      <c r="G190" s="263"/>
-      <c r="H190" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I190" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J190" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K190" s="263" t="s">
+      <c r="D190" s="262"/>
+      <c r="E190" s="262">
+        <v>3</v>
+      </c>
+      <c r="F190" s="262"/>
+      <c r="G190" s="262"/>
+      <c r="H190" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I190" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J190" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K190" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L190" s="202"/>
@@ -26729,28 +26720,28 @@
       <c r="T190" s="14"/>
     </row>
     <row r="191" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B191" s="263" t="s">
-        <v>141</v>
-      </c>
-      <c r="C191" s="263" t="s">
+      <c r="B191" s="268" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D191" s="263"/>
-      <c r="E191" s="263"/>
-      <c r="F191" s="263"/>
-      <c r="G191" s="263">
-        <v>3</v>
-      </c>
-      <c r="H191" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I191" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J191" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K191" s="263" t="s">
+      <c r="D191" s="262"/>
+      <c r="E191" s="262"/>
+      <c r="F191" s="262"/>
+      <c r="G191" s="262">
+        <v>3</v>
+      </c>
+      <c r="H191" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I191" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J191" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K191" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L191" s="202"/>
@@ -26762,32 +26753,32 @@
       <c r="T191" s="14"/>
     </row>
     <row r="192" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B192" s="263" t="s">
+      <c r="B192" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="C192" s="263" t="s">
+      <c r="C192" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D192" s="263">
-        <v>2</v>
-      </c>
-      <c r="E192" s="263"/>
-      <c r="F192" s="263">
-        <v>1</v>
-      </c>
-      <c r="G192" s="263">
-        <v>3</v>
-      </c>
-      <c r="H192" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I192" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J192" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K192" s="263" t="s">
+      <c r="D192" s="262">
+        <v>2</v>
+      </c>
+      <c r="E192" s="262"/>
+      <c r="F192" s="262">
+        <v>1</v>
+      </c>
+      <c r="G192" s="262">
+        <v>3</v>
+      </c>
+      <c r="H192" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I192" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J192" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K192" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L192" s="202"/>
@@ -26799,34 +26790,34 @@
       <c r="T192" s="14"/>
     </row>
     <row r="193" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B193" s="263" t="s">
+      <c r="B193" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="C193" s="263" t="s">
+      <c r="C193" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D193" s="263">
-        <v>3</v>
-      </c>
-      <c r="E193" s="263">
-        <v>3</v>
-      </c>
-      <c r="F193" s="263">
-        <v>3</v>
-      </c>
-      <c r="G193" s="263">
-        <v>3</v>
-      </c>
-      <c r="H193" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I193" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J193" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K193" s="263" t="s">
+      <c r="D193" s="262">
+        <v>3</v>
+      </c>
+      <c r="E193" s="262">
+        <v>3</v>
+      </c>
+      <c r="F193" s="262">
+        <v>3</v>
+      </c>
+      <c r="G193" s="262">
+        <v>3</v>
+      </c>
+      <c r="H193" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I193" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J193" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K193" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L193" s="202"/>
@@ -26838,30 +26829,30 @@
       <c r="T193" s="14"/>
     </row>
     <row r="194" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B194" s="263" t="s">
+      <c r="B194" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="C194" s="263" t="s">
+      <c r="C194" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D194" s="263"/>
-      <c r="E194" s="263">
-        <v>1</v>
-      </c>
-      <c r="F194" s="263"/>
-      <c r="G194" s="263">
-        <v>2</v>
-      </c>
-      <c r="H194" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I194" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J194" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K194" s="263" t="s">
+      <c r="D194" s="262"/>
+      <c r="E194" s="262">
+        <v>1</v>
+      </c>
+      <c r="F194" s="262"/>
+      <c r="G194" s="262">
+        <v>2</v>
+      </c>
+      <c r="H194" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I194" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J194" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K194" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L194" s="202"/>
@@ -26873,32 +26864,32 @@
       <c r="T194" s="14"/>
     </row>
     <row r="195" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B195" s="263" t="s">
-        <v>150</v>
-      </c>
-      <c r="C195" s="263" t="s">
+      <c r="B195" s="268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D195" s="263">
-        <v>2</v>
-      </c>
-      <c r="E195" s="263">
-        <v>2</v>
-      </c>
-      <c r="F195" s="263"/>
-      <c r="G195" s="263">
-        <v>1</v>
-      </c>
-      <c r="H195" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I195" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J195" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K195" s="263" t="s">
+      <c r="D195" s="262">
+        <v>2</v>
+      </c>
+      <c r="E195" s="262">
+        <v>2</v>
+      </c>
+      <c r="F195" s="262"/>
+      <c r="G195" s="262">
+        <v>1</v>
+      </c>
+      <c r="H195" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I195" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J195" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K195" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L195" s="202"/>
@@ -26910,28 +26901,28 @@
       <c r="T195" s="14"/>
     </row>
     <row r="196" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B196" s="263" t="s">
+      <c r="B196" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C196" s="263" t="s">
+      <c r="C196" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D196" s="263"/>
-      <c r="E196" s="263"/>
-      <c r="F196" s="263">
-        <v>1</v>
-      </c>
-      <c r="G196" s="263"/>
-      <c r="H196" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I196" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J196" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K196" s="263" t="s">
+      <c r="D196" s="262"/>
+      <c r="E196" s="262"/>
+      <c r="F196" s="262">
+        <v>1</v>
+      </c>
+      <c r="G196" s="262"/>
+      <c r="H196" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J196" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K196" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L196" s="202"/>
@@ -26943,30 +26934,30 @@
       <c r="T196" s="14"/>
     </row>
     <row r="197" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B197" s="263" t="s">
+      <c r="B197" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="C197" s="263" t="s">
+      <c r="C197" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D197" s="263"/>
-      <c r="E197" s="263">
-        <v>1</v>
-      </c>
-      <c r="F197" s="263">
-        <v>1</v>
-      </c>
-      <c r="G197" s="263"/>
-      <c r="H197" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I197" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J197" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K197" s="263" t="s">
+      <c r="D197" s="262"/>
+      <c r="E197" s="262">
+        <v>1</v>
+      </c>
+      <c r="F197" s="262">
+        <v>1</v>
+      </c>
+      <c r="G197" s="262"/>
+      <c r="H197" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I197" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J197" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K197" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L197" s="202"/>
@@ -26978,32 +26969,32 @@
       <c r="T197" s="14"/>
     </row>
     <row r="198" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B198" s="263" t="s">
+      <c r="B198" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="C198" s="263" t="s">
+      <c r="C198" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D198" s="263"/>
-      <c r="E198" s="263">
-        <v>1</v>
-      </c>
-      <c r="F198" s="263">
-        <v>2</v>
-      </c>
-      <c r="G198" s="263">
+      <c r="D198" s="262"/>
+      <c r="E198" s="262">
+        <v>1</v>
+      </c>
+      <c r="F198" s="262">
+        <v>2</v>
+      </c>
+      <c r="G198" s="262">
         <v>4</v>
       </c>
-      <c r="H198" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I198" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J198" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K198" s="263" t="s">
+      <c r="H198" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I198" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J198" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K198" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L198" s="202"/>
@@ -27015,34 +27006,34 @@
       <c r="T198" s="14"/>
     </row>
     <row r="199" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B199" s="263" t="s">
+      <c r="B199" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="C199" s="263" t="s">
+      <c r="C199" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D199" s="263">
-        <v>3</v>
-      </c>
-      <c r="E199" s="263">
-        <v>3</v>
-      </c>
-      <c r="F199" s="263">
-        <v>3</v>
-      </c>
-      <c r="G199" s="263">
-        <v>3</v>
-      </c>
-      <c r="H199" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I199" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J199" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K199" s="263" t="s">
+      <c r="D199" s="262">
+        <v>3</v>
+      </c>
+      <c r="E199" s="262">
+        <v>3</v>
+      </c>
+      <c r="F199" s="262">
+        <v>3</v>
+      </c>
+      <c r="G199" s="262">
+        <v>3</v>
+      </c>
+      <c r="H199" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I199" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J199" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K199" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L199" s="202"/>
@@ -27054,30 +27045,30 @@
       <c r="T199" s="14"/>
     </row>
     <row r="200" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B200" s="263" t="s">
+      <c r="B200" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="C200" s="263" t="s">
+      <c r="C200" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D200" s="263">
-        <v>1</v>
-      </c>
-      <c r="E200" s="263"/>
-      <c r="F200" s="263"/>
-      <c r="G200" s="263">
-        <v>1</v>
-      </c>
-      <c r="H200" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I200" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J200" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K200" s="263" t="s">
+      <c r="D200" s="262">
+        <v>1</v>
+      </c>
+      <c r="E200" s="262"/>
+      <c r="F200" s="262"/>
+      <c r="G200" s="262">
+        <v>1</v>
+      </c>
+      <c r="H200" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I200" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J200" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K200" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L200" s="202"/>
@@ -27089,28 +27080,28 @@
       <c r="T200" s="14"/>
     </row>
     <row r="201" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B201" s="263" t="s">
+      <c r="B201" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="C201" s="263" t="s">
+      <c r="C201" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D201" s="263">
-        <v>1</v>
-      </c>
-      <c r="E201" s="263"/>
-      <c r="F201" s="263"/>
-      <c r="G201" s="263"/>
-      <c r="H201" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I201" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J201" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K201" s="263" t="s">
+      <c r="D201" s="262">
+        <v>1</v>
+      </c>
+      <c r="E201" s="262"/>
+      <c r="F201" s="262"/>
+      <c r="G201" s="262"/>
+      <c r="H201" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I201" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J201" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K201" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L201" s="202"/>
@@ -27122,30 +27113,30 @@
       <c r="T201" s="14"/>
     </row>
     <row r="202" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B202" s="263" t="s">
+      <c r="B202" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="C202" s="263" t="s">
+      <c r="C202" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D202" s="263"/>
-      <c r="E202" s="263"/>
-      <c r="F202" s="263">
+      <c r="D202" s="262"/>
+      <c r="E202" s="262"/>
+      <c r="F202" s="262">
         <v>14</v>
       </c>
-      <c r="G202" s="263">
+      <c r="G202" s="262">
         <v>13</v>
       </c>
-      <c r="H202" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I202" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J202" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K202" s="263" t="s">
+      <c r="H202" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I202" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J202" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K202" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L202" s="202"/>
@@ -27157,32 +27148,32 @@
       <c r="T202" s="14"/>
     </row>
     <row r="203" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B203" s="263" t="s">
+      <c r="B203" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="C203" s="263" t="s">
+      <c r="C203" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="D203" s="263"/>
-      <c r="E203" s="263">
-        <v>2</v>
-      </c>
-      <c r="F203" s="263">
-        <v>2</v>
-      </c>
-      <c r="G203" s="263">
-        <v>2</v>
-      </c>
-      <c r="H203" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I203" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J203" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K203" s="263" t="s">
+      <c r="D203" s="262"/>
+      <c r="E203" s="262">
+        <v>2</v>
+      </c>
+      <c r="F203" s="262">
+        <v>2</v>
+      </c>
+      <c r="G203" s="262">
+        <v>2</v>
+      </c>
+      <c r="H203" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I203" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J203" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K203" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L203" s="202"/>
@@ -27194,34 +27185,34 @@
       <c r="T203" s="14"/>
     </row>
     <row r="204" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B204" s="263" t="s">
-        <v>167</v>
-      </c>
-      <c r="C204" s="263" t="s">
+      <c r="B204" s="268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D204" s="263">
-        <v>2</v>
-      </c>
-      <c r="E204" s="263">
-        <v>2</v>
-      </c>
-      <c r="F204" s="263">
-        <v>2</v>
-      </c>
-      <c r="G204" s="263">
-        <v>2</v>
-      </c>
-      <c r="H204" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I204" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J204" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K204" s="263" t="s">
+      <c r="D204" s="262">
+        <v>2</v>
+      </c>
+      <c r="E204" s="262">
+        <v>2</v>
+      </c>
+      <c r="F204" s="262">
+        <v>2</v>
+      </c>
+      <c r="G204" s="262">
+        <v>2</v>
+      </c>
+      <c r="H204" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I204" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J204" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K204" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L204" s="202"/>
@@ -27233,34 +27224,34 @@
       <c r="T204" s="14"/>
     </row>
     <row r="205" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B205" s="263" t="s">
+      <c r="B205" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="C205" s="263" t="s">
+      <c r="C205" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D205" s="263">
-        <v>3</v>
-      </c>
-      <c r="E205" s="263">
-        <v>3</v>
-      </c>
-      <c r="F205" s="263">
-        <v>3</v>
-      </c>
-      <c r="G205" s="263">
-        <v>3</v>
-      </c>
-      <c r="H205" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I205" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J205" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K205" s="263" t="s">
+      <c r="D205" s="262">
+        <v>3</v>
+      </c>
+      <c r="E205" s="262">
+        <v>3</v>
+      </c>
+      <c r="F205" s="262">
+        <v>3</v>
+      </c>
+      <c r="G205" s="262">
+        <v>3</v>
+      </c>
+      <c r="H205" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I205" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J205" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K205" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L205" s="202"/>
@@ -27272,34 +27263,34 @@
       <c r="T205" s="14"/>
     </row>
     <row r="206" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B206" s="263" t="s">
+      <c r="B206" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="C206" s="263" t="s">
+      <c r="C206" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D206" s="263">
-        <v>1</v>
-      </c>
-      <c r="E206" s="263">
-        <v>1</v>
-      </c>
-      <c r="F206" s="263">
-        <v>2</v>
-      </c>
-      <c r="G206" s="263">
-        <v>2</v>
-      </c>
-      <c r="H206" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I206" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J206" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K206" s="263" t="s">
+      <c r="D206" s="262">
+        <v>1</v>
+      </c>
+      <c r="E206" s="262">
+        <v>1</v>
+      </c>
+      <c r="F206" s="262">
+        <v>2</v>
+      </c>
+      <c r="G206" s="262">
+        <v>2</v>
+      </c>
+      <c r="H206" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I206" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J206" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K206" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L206" s="202"/>
@@ -27311,34 +27302,34 @@
       <c r="T206" s="14"/>
     </row>
     <row r="207" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B207" s="263" t="s">
-        <v>163</v>
-      </c>
-      <c r="C207" s="263" t="s">
+      <c r="B207" s="268" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D207" s="263" t="s">
+      <c r="D207" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="E207" s="263">
-        <v>3</v>
-      </c>
-      <c r="F207" s="263">
-        <v>3</v>
-      </c>
-      <c r="G207" s="263">
-        <v>3</v>
-      </c>
-      <c r="H207" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I207" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J207" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K207" s="263" t="s">
+      <c r="E207" s="262">
+        <v>3</v>
+      </c>
+      <c r="F207" s="262">
+        <v>3</v>
+      </c>
+      <c r="G207" s="262">
+        <v>3</v>
+      </c>
+      <c r="H207" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I207" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J207" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K207" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L207" s="202"/>
@@ -27350,34 +27341,34 @@
       <c r="T207" s="14"/>
     </row>
     <row r="208" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B208" s="263" t="s">
+      <c r="B208" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="C208" s="263" t="s">
+      <c r="C208" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D208" s="263">
+      <c r="D208" s="262">
         <v>5</v>
       </c>
-      <c r="E208" s="263">
+      <c r="E208" s="262">
         <v>10</v>
       </c>
-      <c r="F208" s="263">
+      <c r="F208" s="262">
         <v>15</v>
       </c>
-      <c r="G208" s="263">
+      <c r="G208" s="262">
         <v>20</v>
       </c>
-      <c r="H208" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I208" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J208" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K208" s="263" t="s">
+      <c r="H208" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I208" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J208" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K208" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L208" s="202"/>
@@ -27389,28 +27380,28 @@
       <c r="T208" s="14"/>
     </row>
     <row r="209" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B209" s="263" t="s">
+      <c r="B209" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="C209" s="263" t="s">
+      <c r="C209" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D209" s="263">
-        <v>2</v>
-      </c>
-      <c r="E209" s="263"/>
-      <c r="F209" s="263"/>
-      <c r="G209" s="263"/>
-      <c r="H209" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I209" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J209" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K209" s="263" t="s">
+      <c r="D209" s="262">
+        <v>2</v>
+      </c>
+      <c r="E209" s="262"/>
+      <c r="F209" s="262"/>
+      <c r="G209" s="262"/>
+      <c r="H209" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I209" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J209" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K209" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L209" s="202"/>
@@ -27422,34 +27413,34 @@
       <c r="T209" s="14"/>
     </row>
     <row r="210" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B210" s="263" t="s">
+      <c r="B210" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="C210" s="263" t="s">
+      <c r="C210" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D210" s="263">
-        <v>1</v>
-      </c>
-      <c r="E210" s="263">
-        <v>1</v>
-      </c>
-      <c r="F210" s="263">
-        <v>1</v>
-      </c>
-      <c r="G210" s="263">
-        <v>1</v>
-      </c>
-      <c r="H210" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I210" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J210" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K210" s="263" t="s">
+      <c r="D210" s="262">
+        <v>1</v>
+      </c>
+      <c r="E210" s="262">
+        <v>1</v>
+      </c>
+      <c r="F210" s="262">
+        <v>1</v>
+      </c>
+      <c r="G210" s="262">
+        <v>1</v>
+      </c>
+      <c r="H210" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I210" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J210" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K210" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L210" s="202"/>
@@ -27461,34 +27452,34 @@
       <c r="T210" s="14"/>
     </row>
     <row r="211" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B211" s="263" t="s">
+      <c r="B211" s="268" t="s">
         <v>25</v>
       </c>
-      <c r="C211" s="263" t="s">
+      <c r="C211" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D211" s="263" t="s">
+      <c r="D211" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="E211" s="263" t="s">
+      <c r="E211" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="F211" s="263">
-        <v>3</v>
-      </c>
-      <c r="G211" s="263">
-        <v>3</v>
-      </c>
-      <c r="H211" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I211" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J211" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K211" s="263" t="s">
+      <c r="F211" s="262">
+        <v>3</v>
+      </c>
+      <c r="G211" s="262">
+        <v>3</v>
+      </c>
+      <c r="H211" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I211" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J211" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K211" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L211" s="202"/>
@@ -27500,34 +27491,34 @@
       <c r="T211" s="14"/>
     </row>
     <row r="212" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B212" s="263" t="s">
+      <c r="B212" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="C212" s="263" t="s">
+      <c r="C212" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D212" s="263">
-        <v>2</v>
-      </c>
-      <c r="E212" s="263">
-        <v>2</v>
-      </c>
-      <c r="F212" s="263">
-        <v>2</v>
-      </c>
-      <c r="G212" s="263">
-        <v>2</v>
-      </c>
-      <c r="H212" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I212" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J212" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K212" s="263" t="s">
+      <c r="D212" s="262">
+        <v>2</v>
+      </c>
+      <c r="E212" s="262">
+        <v>2</v>
+      </c>
+      <c r="F212" s="262">
+        <v>2</v>
+      </c>
+      <c r="G212" s="262">
+        <v>2</v>
+      </c>
+      <c r="H212" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I212" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J212" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K212" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L212" s="202"/>
@@ -27539,30 +27530,30 @@
       <c r="T212" s="14"/>
     </row>
     <row r="213" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B213" s="263" t="s">
+      <c r="B213" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="C213" s="263" t="s">
+      <c r="C213" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D213" s="263">
-        <v>2</v>
-      </c>
-      <c r="E213" s="263">
-        <v>2</v>
-      </c>
-      <c r="F213" s="263"/>
-      <c r="G213" s="263"/>
-      <c r="H213" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I213" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J213" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K213" s="263" t="s">
+      <c r="D213" s="262">
+        <v>2</v>
+      </c>
+      <c r="E213" s="262">
+        <v>2</v>
+      </c>
+      <c r="F213" s="262"/>
+      <c r="G213" s="262"/>
+      <c r="H213" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I213" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J213" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K213" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L213" s="202"/>
@@ -27574,32 +27565,32 @@
       <c r="T213" s="14"/>
     </row>
     <row r="214" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B214" s="263" t="s">
+      <c r="B214" s="268" t="s">
         <v>30</v>
       </c>
-      <c r="C214" s="263" t="s">
+      <c r="C214" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D214" s="263">
-        <v>1</v>
-      </c>
-      <c r="E214" s="263">
-        <v>1</v>
-      </c>
-      <c r="F214" s="263">
-        <v>2</v>
-      </c>
-      <c r="G214" s="263"/>
-      <c r="H214" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I214" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J214" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K214" s="263" t="s">
+      <c r="D214" s="262">
+        <v>1</v>
+      </c>
+      <c r="E214" s="262">
+        <v>1</v>
+      </c>
+      <c r="F214" s="262">
+        <v>2</v>
+      </c>
+      <c r="G214" s="262"/>
+      <c r="H214" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I214" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J214" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K214" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L214" s="202"/>
@@ -27611,32 +27602,32 @@
       <c r="T214" s="14"/>
     </row>
     <row r="215" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B215" s="263" t="s">
+      <c r="B215" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="C215" s="263" t="s">
+      <c r="C215" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D215" s="263">
-        <v>3</v>
-      </c>
-      <c r="E215" s="263"/>
-      <c r="F215" s="263">
-        <v>3</v>
-      </c>
-      <c r="G215" s="263">
-        <v>3</v>
-      </c>
-      <c r="H215" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I215" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J215" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K215" s="263" t="s">
+      <c r="D215" s="262">
+        <v>3</v>
+      </c>
+      <c r="E215" s="262"/>
+      <c r="F215" s="262">
+        <v>3</v>
+      </c>
+      <c r="G215" s="262">
+        <v>3</v>
+      </c>
+      <c r="H215" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I215" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J215" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K215" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L215" s="202"/>
@@ -27648,32 +27639,32 @@
       <c r="T215" s="14"/>
     </row>
     <row r="216" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B216" s="263" t="s">
+      <c r="B216" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="263" t="s">
+      <c r="C216" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D216" s="263"/>
-      <c r="E216" s="263">
-        <v>1</v>
-      </c>
-      <c r="F216" s="263">
-        <v>1</v>
-      </c>
-      <c r="G216" s="263">
-        <v>1</v>
-      </c>
-      <c r="H216" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I216" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J216" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K216" s="263" t="s">
+      <c r="D216" s="262"/>
+      <c r="E216" s="262">
+        <v>1</v>
+      </c>
+      <c r="F216" s="262">
+        <v>1</v>
+      </c>
+      <c r="G216" s="262">
+        <v>1</v>
+      </c>
+      <c r="H216" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I216" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J216" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K216" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L216" s="202"/>
@@ -27685,34 +27676,34 @@
       <c r="T216" s="14"/>
     </row>
     <row r="217" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B217" s="263" t="s">
+      <c r="B217" s="268" t="s">
         <v>44</v>
       </c>
-      <c r="C217" s="263" t="s">
+      <c r="C217" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D217" s="263">
-        <v>2</v>
-      </c>
-      <c r="E217" s="263">
-        <v>2</v>
-      </c>
-      <c r="F217" s="263">
-        <v>2</v>
-      </c>
-      <c r="G217" s="263">
-        <v>2</v>
-      </c>
-      <c r="H217" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I217" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J217" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K217" s="263" t="s">
+      <c r="D217" s="262">
+        <v>2</v>
+      </c>
+      <c r="E217" s="262">
+        <v>2</v>
+      </c>
+      <c r="F217" s="262">
+        <v>2</v>
+      </c>
+      <c r="G217" s="262">
+        <v>2</v>
+      </c>
+      <c r="H217" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I217" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J217" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K217" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L217" s="202"/>
@@ -27724,34 +27715,34 @@
       <c r="T217" s="14"/>
     </row>
     <row r="218" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B218" s="263" t="s">
+      <c r="B218" s="268" t="s">
         <v>46</v>
       </c>
-      <c r="C218" s="263" t="s">
+      <c r="C218" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="D218" s="263">
-        <v>2</v>
-      </c>
-      <c r="E218" s="263">
-        <v>2</v>
-      </c>
-      <c r="F218" s="263">
-        <v>3</v>
-      </c>
-      <c r="G218" s="263">
-        <v>3</v>
-      </c>
-      <c r="H218" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="I218" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="J218" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="K218" s="263" t="s">
+      <c r="D218" s="262">
+        <v>2</v>
+      </c>
+      <c r="E218" s="262">
+        <v>2</v>
+      </c>
+      <c r="F218" s="262">
+        <v>3</v>
+      </c>
+      <c r="G218" s="262">
+        <v>3</v>
+      </c>
+      <c r="H218" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I218" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="J218" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="K218" s="262" t="s">
         <v>71</v>
       </c>
       <c r="L218" s="202"/>
@@ -28391,7 +28382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7305AF-3E29-4963-9CB5-AA89731B789F}">
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -28416,20 +28407,20 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244" t="s">
+      <c r="B2" s="242"/>
+      <c r="C2" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="244" t="s">
+      <c r="E2" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="244" t="s">
+      <c r="G2" s="243" t="s">
         <v>62</v>
       </c>
       <c r="I2" s="6"/>
@@ -28439,14 +28430,14 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="244" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="247"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="246"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="K3" s="1"/>
@@ -28454,14 +28445,14 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="245" t="s">
+      <c r="B4" s="244" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="247"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="246"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="1"/>
@@ -28469,14 +28460,14 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="244" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="247"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="246"/>
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="1"/>
@@ -28484,14 +28475,14 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="244" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246"/>
-      <c r="F6" s="246"/>
-      <c r="G6" s="248"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="247"/>
       <c r="I6" s="13"/>
       <c r="J6" s="10"/>
       <c r="K6" s="1"/>
@@ -28499,14 +28490,14 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="245" t="s">
+      <c r="B7" s="244" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="249" t="s">
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="248" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="9"/>
@@ -28516,14 +28507,14 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="245" t="s">
+      <c r="B8" s="244" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="249" t="s">
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="248" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="9"/>
@@ -28533,14 +28524,14 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="245" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="249" t="s">
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="248" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="9"/>
@@ -28550,14 +28541,14 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="245" t="s">
+      <c r="B10" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="249" t="s">
+      <c r="C10" s="245"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="248" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="9"/>
@@ -28736,23 +28727,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8357016a-109e-4c2e-9c84-743a87217de0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EEE12D8E6B88D540B2B8F0B81AC56193" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deee285c5aa8eb74ddce9d0ee1067d81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8357016a-109e-4c2e-9c84-743a87217de0" xmlns:ns4="66b29cd2-1ffa-485e-94a6-4a83435d04b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bff184cafa2a7cea3e02b6977e0f56fe" ns3:_="" ns4:_="">
     <xsd:import namespace="8357016a-109e-4c2e-9c84-743a87217de0"/>
@@ -28967,25 +28941,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{270A92DA-3864-4F0A-A81A-6604AA4A38F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8357016a-109e-4c2e-9c84-743a87217de0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BFD8935-2220-4A21-B92D-615AAD23D833}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8357016a-109e-4c2e-9c84-743a87217de0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F86DFE2-6ECA-45AF-9584-39E3CE7C2F61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29002,4 +28975,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BFD8935-2220-4A21-B92D-615AAD23D833}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{270A92DA-3864-4F0A-A81A-6604AA4A38F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8357016a-109e-4c2e-9c84-743a87217de0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>